--- a/outputs-HGR-r202-archive/p__Actinobacteriota_train.xlsx
+++ b/outputs-HGR-r202-archive/p__Actinobacteriota_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,17 +624,17 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_134.fasta</t>
+          <t>label_20298_2_3_10.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.986676678539368</v>
+        <v>0.9747677169511562</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01332332146063196</v>
+        <v>0.02523228304884382</v>
       </c>
       <c r="D6" t="n">
-        <v>0.986676678539368</v>
+        <v>0.9747677169511562</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -645,17 +645,17 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_8.fasta</t>
+          <t>label_UMGS1405_31.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.371440557406847</v>
+        <v>0.09824801349064007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.628559442593153</v>
+        <v>0.9017519865093599</v>
       </c>
       <c r="D7" t="n">
-        <v>0.628559442593153</v>
+        <v>0.9017519865093599</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -666,101 +666,101 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1527_55.fasta</t>
+          <t>label_UMGS2009_42.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1598276812413282</v>
+        <v>0.5881809744852413</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8401723187586719</v>
+        <v>0.4118190255147587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8401723187586719</v>
+        <v>0.5881809744852413</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1527_84.fasta</t>
+          <t>label_UMGS520_43.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08742817642226541</v>
+        <v>0.8937641687657141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9125718235777346</v>
+        <v>0.1062358312342859</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9125718235777346</v>
+        <v>0.8937641687657141</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2071_38.fasta</t>
+          <t>label_UMGS1731_29.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6853136336023588</v>
+        <v>0.07623552595419969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3146863663976412</v>
+        <v>0.9237644740458003</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6853136336023588</v>
+        <v>0.9237644740458003</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_3_10.fasta</t>
+          <t>label_UMGS194_17.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9747677169511562</v>
+        <v>0.0938537263924638</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02523228304884382</v>
+        <v>0.9061462736075362</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9747677169511562</v>
+        <v>0.9061462736075362</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_31.fasta</t>
+          <t>label_UMGS492_69.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09824801349064007</v>
+        <v>0.2575470691474103</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9017519865093599</v>
+        <v>0.7424529308525897</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9017519865093599</v>
+        <v>0.7424529308525897</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -771,17 +771,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2009_42.fasta</t>
+          <t>label_UMGS928_102.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5881809744852413</v>
+        <v>0.8310806918293122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4118190255147587</v>
+        <v>0.1689193081706878</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5881809744852413</v>
+        <v>0.8310806918293122</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -792,38 +792,38 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS520_43.fasta</t>
+          <t>label_UMGS1719_106.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8937641687657141</v>
+        <v>0.1241467474943005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1062358312342859</v>
+        <v>0.8758532525056995</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8937641687657141</v>
+        <v>0.8758532525056995</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_29.fasta</t>
+          <t>label_UMGS1934_32.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07623552595419969</v>
+        <v>0.09807534475150093</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9237644740458003</v>
+        <v>0.9019246552484991</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9237644740458003</v>
+        <v>0.9019246552484991</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -834,17 +834,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_17.fasta</t>
+          <t>label_UMGS194_24.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0938537263924638</v>
+        <v>0.4198180672933268</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9061462736075362</v>
+        <v>0.5801819327066732</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9061462736075362</v>
+        <v>0.5801819327066732</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -855,80 +855,80 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS492_69.fasta</t>
+          <t>label_UMGS928_135.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2575470691474103</v>
+        <v>0.6034759286523987</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7424529308525897</v>
+        <v>0.3965240713476014</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7424529308525897</v>
+        <v>0.6034759286523987</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_102.fasta</t>
+          <t>label_UMGS1934_7.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8310806918293122</v>
+        <v>0.08296987896965335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1689193081706878</v>
+        <v>0.9170301210303466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8310806918293122</v>
+        <v>0.9170301210303466</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_106.fasta</t>
+          <t>label_UMGS2071_31.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1241467474943005</v>
+        <v>0.8692525262509286</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8758532525056995</v>
+        <v>0.1307474737490714</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8758532525056995</v>
+        <v>0.8692525262509286</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_32.fasta</t>
+          <t>label_UMGS928_67.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09807534475150093</v>
+        <v>0.2326028586488748</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9019246552484991</v>
+        <v>0.7673971413511252</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9019246552484991</v>
+        <v>0.7673971413511252</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -939,124 +939,19 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS194_24.fasta</t>
+          <t>label_UMGS956_76.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4198180672933268</v>
+        <v>0.3034662480963618</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5801819327066732</v>
+        <v>0.6965337519036382</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5801819327066732</v>
+        <v>0.6965337519036382</v>
       </c>
       <c r="E21" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS928_135.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6034759286523987</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3965240713476014</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.6034759286523987</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1934_7.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.08296987896965335</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9170301210303466</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9170301210303466</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2071_31.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.8692525262509286</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1307474737490714</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8692525262509286</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS928_67.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.2326028586488748</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7673971413511252</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.7673971413511252</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS956_76.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.3034662480963618</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6965337519036382</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6965337519036382</v>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>c__Coriobacteriia</t>
         </is>
@@ -1073,7 +968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E415"/>
+  <dimension ref="A1:E347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2560,17 +2455,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_12718_7_46_0.fasta</t>
+          <t>label_UMGS1089_53.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0023606803472902</v>
+        <v>0.002853108188973219</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9976393196527098</v>
+        <v>0.9971468918110268</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9976393196527098</v>
+        <v>0.9971468918110268</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2581,17 +2476,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_20287_6_70_0.fasta</t>
+          <t>label_UMGS1094_68.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.004014067187267045</v>
+        <v>0.005857141534526321</v>
       </c>
       <c r="C72" t="n">
-        <v>0.995985932812733</v>
+        <v>0.9941428584654737</v>
       </c>
       <c r="D72" t="n">
-        <v>0.995985932812733</v>
+        <v>0.9941428584654737</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2602,17 +2497,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000321165_52.fasta</t>
+          <t>label_UMGS1095_57.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.006714104140809085</v>
+        <v>0.003107883921368848</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9932858958591909</v>
+        <v>0.9968921160786312</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9932858958591909</v>
+        <v>0.9968921160786312</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2623,17 +2518,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1131_8.fasta</t>
+          <t>label_UMGS1112_106.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.007424569145374038</v>
+        <v>0.0320423338381326</v>
       </c>
       <c r="C74" t="n">
-        <v>0.992575430854626</v>
+        <v>0.9679576661618674</v>
       </c>
       <c r="D74" t="n">
-        <v>0.992575430854626</v>
+        <v>0.9679576661618674</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2644,17 +2539,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1142_12.fasta</t>
+          <t>label_UMGS1139_111.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4694993140271371</v>
+        <v>0.001609802137272798</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5305006859728628</v>
+        <v>0.9983901978627272</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5305006859728628</v>
+        <v>0.9983901978627272</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2665,17 +2560,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1152_21.fasta</t>
+          <t>label_UMGS1165_20.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.002776784780139319</v>
+        <v>0.003224188665404859</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9972232152198607</v>
+        <v>0.9967758113345951</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9972232152198607</v>
+        <v>0.9967758113345951</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2686,17 +2581,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1190_5.fasta</t>
+          <t>label_UMGS1173_92.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.004431089370687258</v>
+        <v>0.06863992061107393</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9955689106293127</v>
+        <v>0.9313600793889261</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9955689106293127</v>
+        <v>0.9313600793889261</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2707,17 +2602,17 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS11_26.fasta</t>
+          <t>label_UMGS124_31.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.009134718063043445</v>
+        <v>0.01715128250102094</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9908652819369566</v>
+        <v>0.9828487174989791</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9908652819369566</v>
+        <v>0.9828487174989791</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2728,17 +2623,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1200_19.fasta</t>
+          <t>label_UMGS1309_5.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01112712779495928</v>
+        <v>0.0023157605569607</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9888728722050407</v>
+        <v>0.9976842394430393</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9888728722050407</v>
+        <v>0.9976842394430393</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2749,17 +2644,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1293_112.fasta</t>
+          <t>label_UMGS1339_120.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1338003198762656</v>
+        <v>0.009461938267747771</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8661996801237344</v>
+        <v>0.9905380617322522</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8661996801237344</v>
+        <v>0.9905380617322522</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2770,17 +2665,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1309_51.fasta</t>
+          <t>label_UMGS1354_57.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.004614288916195863</v>
+        <v>0.1383287434156044</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9953857110838041</v>
+        <v>0.8616712565843957</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9953857110838041</v>
+        <v>0.8616712565843957</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2791,17 +2686,17 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1309_59.fasta</t>
+          <t>label_UMGS1409_80.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01072828863769448</v>
+        <v>0.003646019635644038</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9892717113623055</v>
+        <v>0.996353980364356</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9892717113623055</v>
+        <v>0.996353980364356</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2812,17 +2707,17 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1321_120.fasta</t>
+          <t>label_UMGS1480_104.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01745379414735426</v>
+        <v>0.006934130873186173</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9825462058526457</v>
+        <v>0.9930658691268138</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9825462058526457</v>
+        <v>0.9930658691268138</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2833,17 +2728,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1349_54.fasta</t>
+          <t>label_UMGS1480_45.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.00619472480881944</v>
+        <v>0.004379015320204682</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9938052751911806</v>
+        <v>0.9956209846797953</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9938052751911806</v>
+        <v>0.9956209846797953</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2854,17 +2749,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1378_53.fasta</t>
+          <t>label_UMGS1480_64.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.04437861179964141</v>
+        <v>0.00112602466077194</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9556213882003586</v>
+        <v>0.9988739753392281</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9556213882003586</v>
+        <v>0.9988739753392281</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2875,17 +2770,17 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1378_98.fasta</t>
+          <t>label_UMGS1482_104.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.07064136142335697</v>
+        <v>0.002357193170933969</v>
       </c>
       <c r="C86" t="n">
-        <v>0.929358638576643</v>
+        <v>0.997642806829066</v>
       </c>
       <c r="D86" t="n">
-        <v>0.929358638576643</v>
+        <v>0.997642806829066</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2896,17 +2791,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1386_117.fasta</t>
+          <t>label_UMGS1489_66.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.05430714059953934</v>
+        <v>0.002811493639125473</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9456928594004607</v>
+        <v>0.9971885063608745</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9456928594004607</v>
+        <v>0.9971885063608745</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2917,17 +2812,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1542_51.fasta</t>
+          <t>label_UMGS1508_97.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0154421811144716</v>
+        <v>0.002378329552843561</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9845578188855284</v>
+        <v>0.9976216704471564</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9845578188855284</v>
+        <v>0.9976216704471564</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2938,17 +2833,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1545_72.fasta</t>
+          <t>label_UMGS1597_13.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.007305209089967457</v>
+        <v>0.0003218190959468625</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9926947909100325</v>
+        <v>0.9996781809040531</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9926947909100325</v>
+        <v>0.9996781809040531</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2959,17 +2854,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1546_22.fasta</t>
+          <t>label_UMGS1597_59.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01499000081308532</v>
+        <v>0.004170327314641398</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9850099991869147</v>
+        <v>0.9958296726853586</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9850099991869147</v>
+        <v>0.9958296726853586</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2980,17 +2875,17 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1629_90.fasta</t>
+          <t>label_UMGS1608_59.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1561774841781501</v>
+        <v>0.001780599783262615</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8438225158218499</v>
+        <v>0.9982194002167374</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8438225158218499</v>
+        <v>0.9982194002167374</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3001,17 +2896,17 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1653_5.fasta</t>
+          <t>label_UMGS1653_11.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.007482024599898551</v>
+        <v>0.001382316213301205</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9925179754001014</v>
+        <v>0.9986176837866988</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9925179754001014</v>
+        <v>0.9986176837866988</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3022,17 +2917,17 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1680_108.fasta</t>
+          <t>label_UMGS1695_136.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.009469659877622827</v>
+        <v>0.002222372836118369</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9905303401223772</v>
+        <v>0.9977776271638816</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9905303401223772</v>
+        <v>0.9977776271638816</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3043,17 +2938,17 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1720_34.fasta</t>
+          <t>label_UMGS1726_78.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.007404077058213443</v>
+        <v>0.003825135648436673</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9925959229417866</v>
+        <v>0.9961748643515633</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9925959229417866</v>
+        <v>0.9961748643515633</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3064,17 +2959,17 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1732_126.fasta</t>
+          <t>label_UMGS1726_8.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01720738187540161</v>
+        <v>0.001994382665899241</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9827926181245984</v>
+        <v>0.9980056173341008</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9827926181245984</v>
+        <v>0.9980056173341008</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3085,17 +2980,17 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1745_1.fasta</t>
+          <t>label_UMGS1745_112.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.4615676474562114</v>
+        <v>0.004375615880285233</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5384323525437886</v>
+        <v>0.9956243841197148</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5384323525437886</v>
+        <v>0.9956243841197148</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3106,17 +3001,17 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1755_84.fasta</t>
+          <t>label_UMGS1773_53.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.009841029146662628</v>
+        <v>0.001724398651170134</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9901589708533374</v>
+        <v>0.9982756013488299</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9901589708533374</v>
+        <v>0.9982756013488299</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3127,17 +3022,17 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1800_64.fasta</t>
+          <t>label_UMGS1780_140.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.005251286753537587</v>
+        <v>0.0388997914388568</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9947487132464624</v>
+        <v>0.9611002085611432</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9947487132464624</v>
+        <v>0.9611002085611432</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3148,17 +3043,17 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1862_10.fasta</t>
+          <t>label_UMGS1832_64.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.00911193584516401</v>
+        <v>0.01895494777820861</v>
       </c>
       <c r="C99" t="n">
-        <v>0.990888064154836</v>
+        <v>0.9810450522217914</v>
       </c>
       <c r="D99" t="n">
-        <v>0.990888064154836</v>
+        <v>0.9810450522217914</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3169,17 +3064,17 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1932_0.fasta</t>
+          <t>label_UMGS1841_35.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.03614372415586853</v>
+        <v>0.003376421525820517</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9638562758441316</v>
+        <v>0.9966235784741795</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9638562758441316</v>
+        <v>0.9966235784741795</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3190,17 +3085,17 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1942_31.fasta</t>
+          <t>label_UMGS1873_7.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.04056073770040514</v>
+        <v>0.0006686303980747432</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9594392622995949</v>
+        <v>0.9993313696019253</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9594392622995949</v>
+        <v>0.9993313696019253</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3211,17 +3106,17 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1943_25.fasta</t>
+          <t>label_UMGS1932_15.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.01335564941223067</v>
+        <v>0.0007832089369128603</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9866443505877693</v>
+        <v>0.9992167910630871</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9866443505877693</v>
+        <v>0.9992167910630871</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3232,17 +3127,17 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2006_3.fasta</t>
+          <t>label_UMGS1948_13.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.01621964739025183</v>
+        <v>0.003280464764469082</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9837803526097482</v>
+        <v>0.9967195352355309</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9837803526097482</v>
+        <v>0.9967195352355309</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3253,17 +3148,17 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2021_32.fasta</t>
+          <t>label_UMGS2029_36.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.009848991328001655</v>
+        <v>0.001706928506149952</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9901510086719983</v>
+        <v>0.99829307149385</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9901510086719983</v>
+        <v>0.99829307149385</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3274,17 +3169,17 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2052_68.fasta</t>
+          <t>label_UMGS256_39.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.04742549621240811</v>
+        <v>0.01268779155771027</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9525745037875919</v>
+        <v>0.9873122084422897</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9525745037875919</v>
+        <v>0.9873122084422897</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3295,17 +3190,17 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS290_41.fasta</t>
+          <t>label_UMGS256_51.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.0129397894731017</v>
+        <v>0.005919552480976754</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9870602105268983</v>
+        <v>0.9940804475190232</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9870602105268983</v>
+        <v>0.9940804475190232</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3316,17 +3211,17 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS296_38.fasta</t>
+          <t>label_UMGS26_11.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.006119755253296222</v>
+        <v>0.003869071742296781</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9938802447467038</v>
+        <v>0.9961309282577032</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9938802447467038</v>
+        <v>0.9961309282577032</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3337,17 +3232,17 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS299_16.fasta</t>
+          <t>label_UMGS295_57.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.00576559592886794</v>
+        <v>0.01364478967733906</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9942344040711321</v>
+        <v>0.9863552103226609</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9942344040711321</v>
+        <v>0.9863552103226609</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3358,17 +3253,17 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS306_19.fasta</t>
+          <t>label_UMGS302_23.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.006411852256936857</v>
+        <v>0.004615416042679121</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9935881477430631</v>
+        <v>0.9953845839573209</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9935881477430631</v>
+        <v>0.9953845839573209</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3379,17 +3274,17 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS308_12.fasta</t>
+          <t>label_UMGS304_42.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.004380091890504589</v>
+        <v>0.05344214893295296</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9956199081094954</v>
+        <v>0.946557851067047</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9956199081094954</v>
+        <v>0.946557851067047</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3400,17 +3295,17 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS315_43.fasta</t>
+          <t>label_UMGS312_5.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.01427528401479028</v>
+        <v>0.001685723733574673</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9857247159852097</v>
+        <v>0.9983142762664253</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9857247159852097</v>
+        <v>0.9983142762664253</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3421,17 +3316,17 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS321_25.fasta</t>
+          <t>label_UMGS312_8.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.005384897722328086</v>
+        <v>0.000562514815269588</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9946151022776719</v>
+        <v>0.9994374851847304</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9946151022776719</v>
+        <v>0.9994374851847304</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3442,17 +3337,17 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS334_0.fasta</t>
+          <t>label_UMGS325_7.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.004648095367261185</v>
+        <v>0.001111701378519014</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9953519046327388</v>
+        <v>0.998888298621481</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9953519046327388</v>
+        <v>0.998888298621481</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3463,17 +3358,17 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS393_37.fasta</t>
+          <t>label_UMGS383_76.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01036390141487376</v>
+        <v>0.005227486428715067</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9896360985851262</v>
+        <v>0.9947725135712849</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9896360985851262</v>
+        <v>0.9947725135712849</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3484,17 +3379,17 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS414_42.fasta</t>
+          <t>label_UMGS467_83.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.03804232677388353</v>
+        <v>0.003323216252951289</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9619576732261165</v>
+        <v>0.9966767837470487</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9619576732261165</v>
+        <v>0.9966767837470487</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3505,17 +3400,17 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS429_55.fasta</t>
+          <t>label_UMGS510_125.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.003168290083999215</v>
+        <v>0.002096466426930066</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9968317099160008</v>
+        <v>0.9979035335730699</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9968317099160008</v>
+        <v>0.9979035335730699</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3526,17 +3421,17 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS449_64.fasta</t>
+          <t>label_UMGS517_20.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.01708081158800878</v>
+        <v>0.002162082305636637</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9829191884119913</v>
+        <v>0.9978379176943634</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9829191884119913</v>
+        <v>0.9978379176943634</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3547,17 +3442,17 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS467_52.fasta</t>
+          <t>label_UMGS545_41.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.006405781081170737</v>
+        <v>0.005826918358887156</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9935942189188293</v>
+        <v>0.9941730816411128</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9935942189188293</v>
+        <v>0.9941730816411128</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3568,17 +3463,17 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS485_19.fasta</t>
+          <t>label_UMGS586_64.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.005271656592313545</v>
+        <v>0.008511600630845217</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9947283434076865</v>
+        <v>0.9914883993691548</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9947283434076865</v>
+        <v>0.9914883993691548</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3589,17 +3484,17 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS512_56.fasta</t>
+          <t>label_UMGS651_66.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.03995321977988153</v>
+        <v>0.000546932612217832</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9600467802201185</v>
+        <v>0.9994530673877822</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9600467802201185</v>
+        <v>0.9994530673877822</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3610,17 +3505,17 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS586_7.fasta</t>
+          <t>label_UMGS666_43.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.003717686298729261</v>
+        <v>0.007683741781283837</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9962823137012707</v>
+        <v>0.9923162582187162</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9962823137012707</v>
+        <v>0.9923162582187162</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3631,17 +3526,17 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS588_80.fasta</t>
+          <t>label_UMGS666_95.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.002575805826394606</v>
+        <v>0.00646907939602448</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9974241941736054</v>
+        <v>0.9935309206039755</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9974241941736054</v>
+        <v>0.9935309206039755</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3652,17 +3547,17 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS589_27.fasta</t>
+          <t>label_UMGS679_61.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.005085787280999954</v>
+        <v>0.02478136103916362</v>
       </c>
       <c r="C123" t="n">
-        <v>0.994914212719</v>
+        <v>0.9752186389608364</v>
       </c>
       <c r="D123" t="n">
-        <v>0.994914212719</v>
+        <v>0.9752186389608364</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3673,17 +3568,17 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS616_7.fasta</t>
+          <t>label_UMGS68_44.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.003026648158116707</v>
+        <v>0.007839705516092477</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9969733518418833</v>
+        <v>0.9921602944839075</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9969733518418833</v>
+        <v>0.9921602944839075</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3694,17 +3589,17 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS623_81.fasta</t>
+          <t>label_UMGS704_43.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.004256719805826092</v>
+        <v>0.01107860386946424</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9957432801941739</v>
+        <v>0.9889213961305358</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9957432801941739</v>
+        <v>0.9889213961305358</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3715,17 +3610,17 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS643_8.fasta</t>
+          <t>label_UMGS724_21.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.003321368735984431</v>
+        <v>0.05662249069332481</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9966786312640156</v>
+        <v>0.9433775093066752</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9966786312640156</v>
+        <v>0.9433775093066752</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3736,17 +3631,17 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS644_21.fasta</t>
+          <t>label_UMGS727_77.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.004958622465713658</v>
+        <v>0.01872132662284542</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9950413775342863</v>
+        <v>0.9812786733771546</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9950413775342863</v>
+        <v>0.9812786733771546</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3757,17 +3652,17 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS652_56.fasta</t>
+          <t>label_UMGS742_120.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.006740798764468424</v>
+        <v>0.01257554835034869</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9932592012355316</v>
+        <v>0.9874244516496513</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9932592012355316</v>
+        <v>0.9874244516496513</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3778,17 +3673,17 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS653_73.fasta</t>
+          <t>label_UMGS751_66.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.003729784650153833</v>
+        <v>0.0005548454156921734</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9962702153498462</v>
+        <v>0.9994451545843078</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9962702153498462</v>
+        <v>0.9994451545843078</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3799,17 +3694,17 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS684_62.fasta</t>
+          <t>label_UMGS779_23.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.008680735792709893</v>
+        <v>0.001565747458407652</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9913192642072901</v>
+        <v>0.9984342525415923</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9913192642072901</v>
+        <v>0.9984342525415923</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3820,17 +3715,17 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS819_77.fasta</t>
+          <t>label_UMGS790_12.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.009960072985513491</v>
+        <v>0.0002949522092972057</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9900399270144865</v>
+        <v>0.9997050477907028</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9900399270144865</v>
+        <v>0.9997050477907028</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3841,17 +3736,17 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS820_16.fasta</t>
+          <t>label_UMGS790_6.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.008392406989936707</v>
+        <v>0.0008463869595287665</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9916075930100633</v>
+        <v>0.9991536130404712</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9916075930100633</v>
+        <v>0.9991536130404712</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3862,17 +3757,17 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS876_39.fasta</t>
+          <t>label_UMGS819_116.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.007049116062884608</v>
+        <v>0.03125127514159332</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9929508839371154</v>
+        <v>0.9687487248584067</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9929508839371154</v>
+        <v>0.9687487248584067</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3883,17 +3778,17 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS888_74.fasta</t>
+          <t>label_UMGS833_103.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.01431949073688588</v>
+        <v>0.03133918464460617</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9856805092631141</v>
+        <v>0.9686608153553938</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9856805092631141</v>
+        <v>0.9686608153553938</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3904,17 +3799,17 @@
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS892_0.fasta</t>
+          <t>label_UMGS888_21.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.004612926361709957</v>
+        <v>0.00119920182714961</v>
       </c>
       <c r="C135" t="n">
-        <v>0.99538707363829</v>
+        <v>0.9988007981728504</v>
       </c>
       <c r="D135" t="n">
-        <v>0.99538707363829</v>
+        <v>0.9988007981728504</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3925,17 +3820,17 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS938_77.fasta</t>
+          <t>label_UMGS938_0.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.005411364549749442</v>
+        <v>0.001533039232719302</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9945886354502506</v>
+        <v>0.9984669607672807</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9945886354502506</v>
+        <v>0.9984669607672807</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3946,17 +3841,17 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS989_31.fasta</t>
+          <t>label_UMGS938_36.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.01373828108606856</v>
+        <v>0.004036130109741465</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9862617189139314</v>
+        <v>0.9959638698902585</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9862617189139314</v>
+        <v>0.9959638698902585</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3967,17 +3862,17 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS996_86.fasta</t>
+          <t>label_UMGS969_117.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.008787052181677191</v>
+        <v>0.007048598736461242</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9912129478183228</v>
+        <v>0.9929514012635388</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9912129478183228</v>
+        <v>0.9929514012635388</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3988,17 +3883,17 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1089_53.fasta</t>
+          <t>label_UMGS996_51.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.002853108188973219</v>
+        <v>0.0008910842063492019</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9971468918110268</v>
+        <v>0.9991089157936508</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9971468918110268</v>
+        <v>0.9991089157936508</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4009,17 +3904,17 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1094_68.fasta</t>
+          <t>label_UMGS1022_14.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.005857141534526321</v>
+        <v>0.01048803804095788</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9941428584654737</v>
+        <v>0.9895119619590421</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9941428584654737</v>
+        <v>0.9895119619590421</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4030,17 +3925,17 @@
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1095_57.fasta</t>
+          <t>label_UMGS1022_37.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.003107883921368848</v>
+        <v>0.01816700311644226</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9968921160786312</v>
+        <v>0.9818329968835577</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9968921160786312</v>
+        <v>0.9818329968835577</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4051,17 +3946,17 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1112_106.fasta</t>
+          <t>label_UMGS1173_75.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0320423338381326</v>
+        <v>0.1279718568915293</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9679576661618674</v>
+        <v>0.8720281431084707</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9679576661618674</v>
+        <v>0.8720281431084707</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4072,17 +3967,17 @@
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1139_111.fasta</t>
+          <t>label_UMGS1207_30.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.001609802137272798</v>
+        <v>0.003627351584961525</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9983901978627272</v>
+        <v>0.9963726484150385</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9983901978627272</v>
+        <v>0.9963726484150385</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4093,17 +3988,17 @@
     <row r="144">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1165_20.fasta</t>
+          <t>label_UMGS1278_2.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.003224188665404859</v>
+        <v>0.004378783227591443</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9967758113345951</v>
+        <v>0.9956212167724086</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9967758113345951</v>
+        <v>0.9956212167724086</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4114,17 +4009,17 @@
     <row r="145">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1173_92.fasta</t>
+          <t>label_UMGS1333_50.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.06863992061107393</v>
+        <v>0.002617419135598986</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9313600793889261</v>
+        <v>0.997382580864401</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9313600793889261</v>
+        <v>0.997382580864401</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4135,17 +4030,17 @@
     <row r="146">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS124_31.fasta</t>
+          <t>label_UMGS1336_105.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.01715128250102094</v>
+        <v>0.002635741707896266</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9828487174989791</v>
+        <v>0.9973642582921037</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9828487174989791</v>
+        <v>0.9973642582921037</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4156,17 +4051,17 @@
     <row r="147">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1309_5.fasta</t>
+          <t>label_UMGS1354_95.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0023157605569607</v>
+        <v>0.009815071206370929</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9976842394430393</v>
+        <v>0.9901849287936291</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9976842394430393</v>
+        <v>0.9901849287936291</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4177,17 +4072,17 @@
     <row r="148">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1339_120.fasta</t>
+          <t>label_UMGS1376_24.fasta</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.009461938267747771</v>
+        <v>0.006374450121802266</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9905380617322522</v>
+        <v>0.9936255498781978</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9905380617322522</v>
+        <v>0.9936255498781978</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4198,17 +4093,17 @@
     <row r="149">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1354_57.fasta</t>
+          <t>label_UMGS1380_92.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.1383287434156044</v>
+        <v>0.004203430388698526</v>
       </c>
       <c r="C149" t="n">
-        <v>0.8616712565843957</v>
+        <v>0.9957965696113015</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8616712565843957</v>
+        <v>0.9957965696113015</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4219,17 +4114,17 @@
     <row r="150">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1409_80.fasta</t>
+          <t>label_UMGS1381_69.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.003646019635644038</v>
+        <v>0.03407041998727234</v>
       </c>
       <c r="C150" t="n">
-        <v>0.996353980364356</v>
+        <v>0.9659295800127277</v>
       </c>
       <c r="D150" t="n">
-        <v>0.996353980364356</v>
+        <v>0.9659295800127277</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4240,17 +4135,17 @@
     <row r="151">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1480_104.fasta</t>
+          <t>label_UMGS1381_92.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.006934130873186173</v>
+        <v>0.008783626358479513</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9930658691268138</v>
+        <v>0.9912163736415205</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9930658691268138</v>
+        <v>0.9912163736415205</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4261,17 +4156,17 @@
     <row r="152">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1480_45.fasta</t>
+          <t>label_UMGS1417_68.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.004379015320204682</v>
+        <v>0.001107620254337416</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9956209846797953</v>
+        <v>0.9988923797456626</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9956209846797953</v>
+        <v>0.9988923797456626</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4282,17 +4177,17 @@
     <row r="153">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1480_64.fasta</t>
+          <t>label_UMGS1418_92.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.00112602466077194</v>
+        <v>0.06321458536009994</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9988739753392281</v>
+        <v>0.9367854146399001</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9988739753392281</v>
+        <v>0.9367854146399001</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4303,17 +4198,17 @@
     <row r="154">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1482_104.fasta</t>
+          <t>label_UMGS1420_13.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.002357193170933969</v>
+        <v>0.005133295264236781</v>
       </c>
       <c r="C154" t="n">
-        <v>0.997642806829066</v>
+        <v>0.9948667047357632</v>
       </c>
       <c r="D154" t="n">
-        <v>0.997642806829066</v>
+        <v>0.9948667047357632</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4324,17 +4219,17 @@
     <row r="155">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1489_66.fasta</t>
+          <t>label_UMGS1421_116.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.002811493639125473</v>
+        <v>0.003925507509240367</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9971885063608745</v>
+        <v>0.9960744924907596</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9971885063608745</v>
+        <v>0.9960744924907596</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4345,17 +4240,17 @@
     <row r="156">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1508_97.fasta</t>
+          <t>label_UMGS1482_6.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.002378329552843561</v>
+        <v>0.00498186117111965</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9976216704471564</v>
+        <v>0.9950181388288803</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9976216704471564</v>
+        <v>0.9950181388288803</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4366,17 +4261,17 @@
     <row r="157">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1597_13.fasta</t>
+          <t>label_UMGS1482_68.fasta</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0003218190959468625</v>
+        <v>0.01048317382425745</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9996781809040531</v>
+        <v>0.9895168261757425</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9996781809040531</v>
+        <v>0.9895168261757425</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4387,17 +4282,17 @@
     <row r="158">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1597_59.fasta</t>
+          <t>label_UMGS1519_40.fasta</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.004170327314641398</v>
+        <v>0.04507036321627667</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9958296726853586</v>
+        <v>0.9549296367837233</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9958296726853586</v>
+        <v>0.9549296367837233</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4408,17 +4303,17 @@
     <row r="159">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1608_59.fasta</t>
+          <t>label_UMGS1545_122.fasta</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.001780599783262615</v>
+        <v>0.00605207225974369</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9982194002167374</v>
+        <v>0.9939479277402563</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9982194002167374</v>
+        <v>0.9939479277402563</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4429,17 +4324,17 @@
     <row r="160">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1653_11.fasta</t>
+          <t>label_UMGS1545_98.fasta</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.001382316213301205</v>
+        <v>0.003874188592128291</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9986176837866988</v>
+        <v>0.9961258114078717</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9986176837866988</v>
+        <v>0.9961258114078717</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4450,17 +4345,17 @@
     <row r="161">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1695_136.fasta</t>
+          <t>label_UMGS1546_118.fasta</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.002222372836118369</v>
+        <v>0.0242898825374549</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9977776271638816</v>
+        <v>0.9757101174625451</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9977776271638816</v>
+        <v>0.9757101174625451</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4471,17 +4366,17 @@
     <row r="162">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1726_78.fasta</t>
+          <t>label_UMGS1546_57.fasta</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.003825135648436673</v>
+        <v>0.005410773605277308</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9961748643515633</v>
+        <v>0.9945892263947227</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9961748643515633</v>
+        <v>0.9945892263947227</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4492,17 +4387,17 @@
     <row r="163">
       <c r="A163" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1726_8.fasta</t>
+          <t>label_UMGS1565_51.fasta</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.001994382665899241</v>
+        <v>0.005282249800212857</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9980056173341008</v>
+        <v>0.9947177501997871</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9980056173341008</v>
+        <v>0.9947177501997871</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4513,17 +4408,17 @@
     <row r="164">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1745_112.fasta</t>
+          <t>label_UMGS1589_81.fasta</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.004375615880285233</v>
+        <v>0.0112608796606587</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9956243841197148</v>
+        <v>0.9887391203393413</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9956243841197148</v>
+        <v>0.9887391203393413</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4534,17 +4429,17 @@
     <row r="165">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1773_53.fasta</t>
+          <t>label_UMGS1667_28.fasta</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.001724398651170134</v>
+        <v>0.003506724053774835</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9982756013488299</v>
+        <v>0.9964932759462252</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9982756013488299</v>
+        <v>0.9964932759462252</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4555,17 +4450,17 @@
     <row r="166">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1780_140.fasta</t>
+          <t>label_UMGS1701_73.fasta</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0388997914388568</v>
+        <v>0.005680841636968027</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9611002085611432</v>
+        <v>0.994319158363032</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9611002085611432</v>
+        <v>0.994319158363032</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4576,17 +4471,17 @@
     <row r="167">
       <c r="A167" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1832_64.fasta</t>
+          <t>label_UMGS1701_98.fasta</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.01895494777820861</v>
+        <v>0.03119637169491918</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9810450522217914</v>
+        <v>0.9688036283050808</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9810450522217914</v>
+        <v>0.9688036283050808</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4597,17 +4492,17 @@
     <row r="168">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1841_35.fasta</t>
+          <t>label_UMGS1721_10.fasta</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.003376421525820517</v>
+        <v>0.01091858817306224</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9966235784741795</v>
+        <v>0.9890814118269378</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9966235784741795</v>
+        <v>0.9890814118269378</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4618,17 +4513,17 @@
     <row r="169">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1873_7.fasta</t>
+          <t>label_UMGS1721_50.fasta</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.0006686303980747432</v>
+        <v>0.01759647732622638</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9993313696019253</v>
+        <v>0.9824035226737736</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9993313696019253</v>
+        <v>0.9824035226737736</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4639,17 +4534,17 @@
     <row r="170">
       <c r="A170" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1932_15.fasta</t>
+          <t>label_UMGS1745_87.fasta</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.0007832089369128603</v>
+        <v>0.1896832974968343</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9992167910630871</v>
+        <v>0.8103167025031657</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9992167910630871</v>
+        <v>0.8103167025031657</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4660,17 +4555,17 @@
     <row r="171">
       <c r="A171" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1948_13.fasta</t>
+          <t>label_UMGS1841_113.fasta</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.003280464764469082</v>
+        <v>0.07204893995315065</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9967195352355309</v>
+        <v>0.9279510600468494</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9967195352355309</v>
+        <v>0.9279510600468494</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4681,17 +4576,17 @@
     <row r="172">
       <c r="A172" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2029_36.fasta</t>
+          <t>label_UMGS1862_66.fasta</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.001706928506149952</v>
+        <v>0.007492461100347181</v>
       </c>
       <c r="C172" t="n">
-        <v>0.99829307149385</v>
+        <v>0.9925075388996528</v>
       </c>
       <c r="D172" t="n">
-        <v>0.99829307149385</v>
+        <v>0.9925075388996528</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4702,17 +4597,17 @@
     <row r="173">
       <c r="A173" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS256_39.fasta</t>
+          <t>label_UMGS1913_87.fasta</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.01268779155771027</v>
+        <v>0.1856390589869141</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9873122084422897</v>
+        <v>0.8143609410130859</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9873122084422897</v>
+        <v>0.8143609410130859</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4723,17 +4618,17 @@
     <row r="174">
       <c r="A174" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS256_51.fasta</t>
+          <t>label_UMGS1943_16.fasta</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.005919552480976754</v>
+        <v>0.01096176339347876</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9940804475190232</v>
+        <v>0.9890382366065212</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9940804475190232</v>
+        <v>0.9890382366065212</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4744,17 +4639,17 @@
     <row r="175">
       <c r="A175" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS26_11.fasta</t>
+          <t>label_UMGS1943_27.fasta</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.003869071742296781</v>
+        <v>0.01586496972050577</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9961309282577032</v>
+        <v>0.9841350302794942</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9961309282577032</v>
+        <v>0.9841350302794942</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4765,17 +4660,17 @@
     <row r="176">
       <c r="A176" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS295_57.fasta</t>
+          <t>label_UMGS1970_42.fasta</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.01364478967733906</v>
+        <v>0.008530923004670954</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9863552103226609</v>
+        <v>0.991469076995329</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9863552103226609</v>
+        <v>0.991469076995329</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4786,17 +4681,17 @@
     <row r="177">
       <c r="A177" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS302_23.fasta</t>
+          <t>label_UMGS1991_38.fasta</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.004615416042679121</v>
+        <v>0.006433554941954523</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9953845839573209</v>
+        <v>0.9935664450580455</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9953845839573209</v>
+        <v>0.9935664450580455</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4807,17 +4702,17 @@
     <row r="178">
       <c r="A178" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS304_42.fasta</t>
+          <t>label_UMGS2029_40.fasta</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.05344214893295296</v>
+        <v>0.008692263389515453</v>
       </c>
       <c r="C178" t="n">
-        <v>0.946557851067047</v>
+        <v>0.9913077366104845</v>
       </c>
       <c r="D178" t="n">
-        <v>0.946557851067047</v>
+        <v>0.9913077366104845</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4828,17 +4723,17 @@
     <row r="179">
       <c r="A179" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS312_5.fasta</t>
+          <t>label_UMGS2052_0.fasta</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.001685723733574673</v>
+        <v>0.007455834405880823</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9983142762664253</v>
+        <v>0.9925441655941192</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9983142762664253</v>
+        <v>0.9925441655941192</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4849,17 +4744,17 @@
     <row r="180">
       <c r="A180" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS312_8.fasta</t>
+          <t>label_UMGS296_40.fasta</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.000562514815269588</v>
+        <v>0.005230144928017211</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9994374851847304</v>
+        <v>0.9947698550719828</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9994374851847304</v>
+        <v>0.9947698550719828</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4870,17 +4765,17 @@
     <row r="181">
       <c r="A181" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS325_7.fasta</t>
+          <t>label_UMGS297_27.fasta</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.001111701378519014</v>
+        <v>0.001316644198739447</v>
       </c>
       <c r="C181" t="n">
-        <v>0.998888298621481</v>
+        <v>0.9986833558012606</v>
       </c>
       <c r="D181" t="n">
-        <v>0.998888298621481</v>
+        <v>0.9986833558012606</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4891,17 +4786,17 @@
     <row r="182">
       <c r="A182" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS383_76.fasta</t>
+          <t>label_UMGS310_18.fasta</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.005227486428715067</v>
+        <v>0.002336448634418176</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9947725135712849</v>
+        <v>0.9976635513655818</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9947725135712849</v>
+        <v>0.9976635513655818</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4912,17 +4807,17 @@
     <row r="183">
       <c r="A183" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS467_83.fasta</t>
+          <t>label_UMGS311_17.fasta</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.003323216252951289</v>
+        <v>0.003854709001359202</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9966767837470487</v>
+        <v>0.9961452909986408</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9966767837470487</v>
+        <v>0.9961452909986408</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4933,17 +4828,17 @@
     <row r="184">
       <c r="A184" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS510_125.fasta</t>
+          <t>label_UMGS378_45.fasta</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.002096466426930066</v>
+        <v>0.04043854919650303</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9979035335730699</v>
+        <v>0.959561450803497</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9979035335730699</v>
+        <v>0.959561450803497</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4954,17 +4849,17 @@
     <row r="185">
       <c r="A185" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS517_20.fasta</t>
+          <t>label_UMGS383_71.fasta</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.002162082305636637</v>
+        <v>0.013585134158135</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9978379176943634</v>
+        <v>0.986414865841865</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9978379176943634</v>
+        <v>0.986414865841865</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4975,17 +4870,17 @@
     <row r="186">
       <c r="A186" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS545_41.fasta</t>
+          <t>label_UMGS384_17.fasta</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.005826918358887156</v>
+        <v>0.003811033448666068</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9941730816411128</v>
+        <v>0.9961889665513339</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9941730816411128</v>
+        <v>0.9961889665513339</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4996,17 +4891,17 @@
     <row r="187">
       <c r="A187" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS586_64.fasta</t>
+          <t>label_UMGS395_33.fasta</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.008511600630845217</v>
+        <v>0.008251682016903072</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9914883993691548</v>
+        <v>0.9917483179830969</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9914883993691548</v>
+        <v>0.9917483179830969</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5017,17 +4912,17 @@
     <row r="188">
       <c r="A188" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS651_66.fasta</t>
+          <t>label_UMGS429_58.fasta</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.000546932612217832</v>
+        <v>0.001959796488950505</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9994530673877822</v>
+        <v>0.9980402035110495</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9994530673877822</v>
+        <v>0.9980402035110495</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5038,17 +4933,17 @@
     <row r="189">
       <c r="A189" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS666_43.fasta</t>
+          <t>label_UMGS515_65.fasta</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.007683741781283837</v>
+        <v>0.01263551232950288</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9923162582187162</v>
+        <v>0.9873644876704971</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9923162582187162</v>
+        <v>0.9873644876704971</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5059,17 +4954,17 @@
     <row r="190">
       <c r="A190" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS666_95.fasta</t>
+          <t>label_UMGS517_15.fasta</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.00646907939602448</v>
+        <v>0.002320101393618379</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9935309206039755</v>
+        <v>0.9976798986063816</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9935309206039755</v>
+        <v>0.9976798986063816</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5080,17 +4975,17 @@
     <row r="191">
       <c r="A191" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS679_61.fasta</t>
+          <t>label_UMGS585_40.fasta</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.02478136103916362</v>
+        <v>0.03412148121632985</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9752186389608364</v>
+        <v>0.9658785187836701</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9752186389608364</v>
+        <v>0.9658785187836701</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5101,17 +4996,17 @@
     <row r="192">
       <c r="A192" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_44.fasta</t>
+          <t>label_UMGS588_73.fasta</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.007839705516092477</v>
+        <v>0.007963093590319992</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9921602944839075</v>
+        <v>0.99203690640968</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9921602944839075</v>
+        <v>0.99203690640968</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5122,17 +5017,17 @@
     <row r="193">
       <c r="A193" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS704_43.fasta</t>
+          <t>label_UMGS623_83.fasta</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.01107860386946424</v>
+        <v>0.01178209703478594</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9889213961305358</v>
+        <v>0.9882179029652141</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9889213961305358</v>
+        <v>0.9882179029652141</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5143,17 +5038,17 @@
     <row r="194">
       <c r="A194" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS724_21.fasta</t>
+          <t>label_UMGS68_17.fasta</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.05662249069332481</v>
+        <v>0.0315362414185888</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9433775093066752</v>
+        <v>0.9684637585814112</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9433775093066752</v>
+        <v>0.9684637585814112</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5164,17 +5059,17 @@
     <row r="195">
       <c r="A195" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS727_77.fasta</t>
+          <t>label_UMGS723_40.fasta</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.01872132662284542</v>
+        <v>0.009809983547715451</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9812786733771546</v>
+        <v>0.9901900164522845</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9812786733771546</v>
+        <v>0.9901900164522845</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5185,17 +5080,17 @@
     <row r="196">
       <c r="A196" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS742_120.fasta</t>
+          <t>label_UMGS745_76.fasta</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.01257554835034869</v>
+        <v>0.07620063698751667</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9874244516496513</v>
+        <v>0.9237993630124833</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9874244516496513</v>
+        <v>0.9237993630124833</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5206,17 +5101,17 @@
     <row r="197">
       <c r="A197" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS751_66.fasta</t>
+          <t>label_UMGS751_38.fasta</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0005548454156921734</v>
+        <v>0.007110426591437458</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9994451545843078</v>
+        <v>0.9928895734085625</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9994451545843078</v>
+        <v>0.9928895734085625</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5227,17 +5122,17 @@
     <row r="198">
       <c r="A198" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS779_23.fasta</t>
+          <t>label_UMGS751_67.fasta</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.001565747458407652</v>
+        <v>0.004832937676205296</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9984342525415923</v>
+        <v>0.9951670623237947</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9984342525415923</v>
+        <v>0.9951670623237947</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5248,17 +5143,17 @@
     <row r="199">
       <c r="A199" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS790_12.fasta</t>
+          <t>label_UMGS789_20.fasta</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.0002949522092972057</v>
+        <v>0.007673354009154032</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9997050477907028</v>
+        <v>0.992326645990846</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9997050477907028</v>
+        <v>0.992326645990846</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5269,17 +5164,17 @@
     <row r="200">
       <c r="A200" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS790_6.fasta</t>
+          <t>label_UMGS806_53.fasta</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.0008463869595287665</v>
+        <v>0.005030728512847693</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9991536130404712</v>
+        <v>0.9949692714871523</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9991536130404712</v>
+        <v>0.9949692714871523</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5290,17 +5185,17 @@
     <row r="201">
       <c r="A201" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS819_116.fasta</t>
+          <t>label_UMGS817_77.fasta</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.03125127514159332</v>
+        <v>0.009956878258387758</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9687487248584067</v>
+        <v>0.9900431217416122</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9687487248584067</v>
+        <v>0.9900431217416122</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5311,17 +5206,17 @@
     <row r="202">
       <c r="A202" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS833_103.fasta</t>
+          <t>label_UMGS833_2.fasta</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.03133918464460617</v>
+        <v>0.002884357324446363</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9686608153553938</v>
+        <v>0.9971156426755536</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9686608153553938</v>
+        <v>0.9971156426755536</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5332,17 +5227,17 @@
     <row r="203">
       <c r="A203" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS888_21.fasta</t>
+          <t>label_UMGS851_42.fasta</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.00119920182714961</v>
+        <v>0.00804238135658486</v>
       </c>
       <c r="C203" t="n">
-        <v>0.9988007981728504</v>
+        <v>0.9919576186434151</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9988007981728504</v>
+        <v>0.9919576186434151</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5353,17 +5248,17 @@
     <row r="204">
       <c r="A204" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS938_0.fasta</t>
+          <t>label_UMGS877_77.fasta</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.001533039232719302</v>
+        <v>0.002474665728666947</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9984669607672807</v>
+        <v>0.9975253342713331</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9984669607672807</v>
+        <v>0.9975253342713331</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5374,17 +5269,17 @@
     <row r="205">
       <c r="A205" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS938_36.fasta</t>
+          <t>label_UMGS955_12.fasta</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.004036130109741465</v>
+        <v>0.006582952901528438</v>
       </c>
       <c r="C205" t="n">
-        <v>0.9959638698902585</v>
+        <v>0.9934170470984716</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9959638698902585</v>
+        <v>0.9934170470984716</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -5395,17 +5290,17 @@
     <row r="206">
       <c r="A206" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS969_117.fasta</t>
+          <t>label_UMGS959_67.fasta</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.007048598736461242</v>
+        <v>0.04873050973974847</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9929514012635388</v>
+        <v>0.9512694902602515</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9929514012635388</v>
+        <v>0.9512694902602515</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -5416,17 +5311,17 @@
     <row r="207">
       <c r="A207" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS996_51.fasta</t>
+          <t>label_UMGS962_76.fasta</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0008910842063492019</v>
+        <v>0.001472297807618372</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9991089157936508</v>
+        <v>0.9985277021923816</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9991089157936508</v>
+        <v>0.9985277021923816</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -5437,17 +5332,17 @@
     <row r="208">
       <c r="A208" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1022_14.fasta</t>
+          <t>label_UMGS969_39.fasta</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.01048803804095788</v>
+        <v>0.001800945218119576</v>
       </c>
       <c r="C208" t="n">
-        <v>0.9895119619590421</v>
+        <v>0.9981990547818804</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9895119619590421</v>
+        <v>0.9981990547818804</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -5458,17 +5353,17 @@
     <row r="209">
       <c r="A209" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1022_37.fasta</t>
+          <t>label_14207_7_25_24.fasta</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.01816700311644226</v>
+        <v>0.005080749511700899</v>
       </c>
       <c r="C209" t="n">
-        <v>0.9818329968835577</v>
+        <v>0.9949192504882991</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9818329968835577</v>
+        <v>0.9949192504882991</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -5479,17 +5374,17 @@
     <row r="210">
       <c r="A210" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1173_75.fasta</t>
+          <t>label_18048_2_57_0.fasta</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.1279718568915293</v>
+        <v>0.006349349227353085</v>
       </c>
       <c r="C210" t="n">
-        <v>0.8720281431084707</v>
+        <v>0.9936506507726469</v>
       </c>
       <c r="D210" t="n">
-        <v>0.8720281431084707</v>
+        <v>0.9936506507726469</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -5500,17 +5395,17 @@
     <row r="211">
       <c r="A211" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1207_30.fasta</t>
+          <t>label_UMGS1022_53.fasta</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.003627351584961525</v>
+        <v>0.001873450245936659</v>
       </c>
       <c r="C211" t="n">
-        <v>0.9963726484150385</v>
+        <v>0.9981265497540633</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9963726484150385</v>
+        <v>0.9981265497540633</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5521,17 +5416,17 @@
     <row r="212">
       <c r="A212" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1278_2.fasta</t>
+          <t>label_UMGS1026_141.fasta</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.004378783227591443</v>
+        <v>0.003362007806563816</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9956212167724086</v>
+        <v>0.9966379921934362</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9956212167724086</v>
+        <v>0.9966379921934362</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5542,17 +5437,17 @@
     <row r="213">
       <c r="A213" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1333_50.fasta</t>
+          <t>label_UMGS1047_37.fasta</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.002617419135598986</v>
+        <v>0.007394212554135193</v>
       </c>
       <c r="C213" t="n">
-        <v>0.997382580864401</v>
+        <v>0.9926057874458648</v>
       </c>
       <c r="D213" t="n">
-        <v>0.997382580864401</v>
+        <v>0.9926057874458648</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5563,17 +5458,17 @@
     <row r="214">
       <c r="A214" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1336_105.fasta</t>
+          <t>label_UMGS1080_7.fasta</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.002635741707896266</v>
+        <v>0.1362338102202452</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9973642582921037</v>
+        <v>0.8637661897797548</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9973642582921037</v>
+        <v>0.8637661897797548</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -5584,17 +5479,17 @@
     <row r="215">
       <c r="A215" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1354_95.fasta</t>
+          <t>label_UMGS1086_46.fasta</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.009815071206370929</v>
+        <v>0.02383646652847237</v>
       </c>
       <c r="C215" t="n">
-        <v>0.9901849287936291</v>
+        <v>0.9761635334715276</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9901849287936291</v>
+        <v>0.9761635334715276</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -5605,17 +5500,17 @@
     <row r="216">
       <c r="A216" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1376_24.fasta</t>
+          <t>label_UMGS1089_15.fasta</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.006374450121802266</v>
+        <v>0.005793011169020867</v>
       </c>
       <c r="C216" t="n">
-        <v>0.9936255498781978</v>
+        <v>0.9942069888309791</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9936255498781978</v>
+        <v>0.9942069888309791</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -5626,17 +5521,17 @@
     <row r="217">
       <c r="A217" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1380_92.fasta</t>
+          <t>label_UMGS1094_49.fasta</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.004203430388698526</v>
+        <v>0.01046687258728995</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9957965696113015</v>
+        <v>0.98953312741271</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9957965696113015</v>
+        <v>0.98953312741271</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -5647,17 +5542,17 @@
     <row r="218">
       <c r="A218" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1381_69.fasta</t>
+          <t>label_UMGS1112_9.fasta</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.03407041998727234</v>
+        <v>0.003770799908174527</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9659295800127277</v>
+        <v>0.9962292000918255</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9659295800127277</v>
+        <v>0.9962292000918255</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -5668,17 +5563,17 @@
     <row r="219">
       <c r="A219" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1381_92.fasta</t>
+          <t>label_UMGS1117_43.fasta</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.008783626358479513</v>
+        <v>0.006093620568344504</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9912163736415205</v>
+        <v>0.9939063794316555</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9912163736415205</v>
+        <v>0.9939063794316555</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -5689,17 +5584,17 @@
     <row r="220">
       <c r="A220" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1417_68.fasta</t>
+          <t>label_UMGS1131_35.fasta</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.001107620254337416</v>
+        <v>0.006379626110461833</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9988923797456626</v>
+        <v>0.9936203738895382</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9988923797456626</v>
+        <v>0.9936203738895382</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -5710,17 +5605,17 @@
     <row r="221">
       <c r="A221" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1418_92.fasta</t>
+          <t>label_UMGS1139_121.fasta</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.06321458536009994</v>
+        <v>0.003356412388201835</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9367854146399001</v>
+        <v>0.9966435876117982</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9367854146399001</v>
+        <v>0.9966435876117982</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -5731,17 +5626,17 @@
     <row r="222">
       <c r="A222" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1420_13.fasta</t>
+          <t>label_UMGS1146_37.fasta</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.005133295264236781</v>
+        <v>0.003962553696958304</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9948667047357632</v>
+        <v>0.9960374463030417</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9948667047357632</v>
+        <v>0.9960374463030417</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -5752,17 +5647,17 @@
     <row r="223">
       <c r="A223" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1421_116.fasta</t>
+          <t>label_UMGS1146_62.fasta</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.003925507509240367</v>
+        <v>0.003713964224776101</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9960744924907596</v>
+        <v>0.9962860357752239</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9960744924907596</v>
+        <v>0.9962860357752239</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -5773,17 +5668,17 @@
     <row r="224">
       <c r="A224" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1482_6.fasta</t>
+          <t>label_UMGS1160_70.fasta</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.00498186117111965</v>
+        <v>0.01639352015712303</v>
       </c>
       <c r="C224" t="n">
-        <v>0.9950181388288803</v>
+        <v>0.983606479842877</v>
       </c>
       <c r="D224" t="n">
-        <v>0.9950181388288803</v>
+        <v>0.983606479842877</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5794,17 +5689,17 @@
     <row r="225">
       <c r="A225" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1482_68.fasta</t>
+          <t>label_UMGS1161_14.fasta</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.01048317382425745</v>
+        <v>0.005341783067424277</v>
       </c>
       <c r="C225" t="n">
-        <v>0.9895168261757425</v>
+        <v>0.9946582169325757</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9895168261757425</v>
+        <v>0.9946582169325757</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5815,17 +5710,17 @@
     <row r="226">
       <c r="A226" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1519_40.fasta</t>
+          <t>label_UMGS1173_1.fasta</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.04507036321627667</v>
+        <v>0.005845547650591643</v>
       </c>
       <c r="C226" t="n">
-        <v>0.9549296367837233</v>
+        <v>0.9941544523494084</v>
       </c>
       <c r="D226" t="n">
-        <v>0.9549296367837233</v>
+        <v>0.9941544523494084</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5836,17 +5731,17 @@
     <row r="227">
       <c r="A227" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1545_122.fasta</t>
+          <t>label_UMGS1174_28.fasta</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.00605207225974369</v>
+        <v>0.00447857202974733</v>
       </c>
       <c r="C227" t="n">
-        <v>0.9939479277402563</v>
+        <v>0.9955214279702527</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9939479277402563</v>
+        <v>0.9955214279702527</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5857,17 +5752,17 @@
     <row r="228">
       <c r="A228" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1545_98.fasta</t>
+          <t>label_UMGS1186_41.fasta</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.003874188592128291</v>
+        <v>0.0006300796694580502</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9961258114078717</v>
+        <v>0.9993699203305419</v>
       </c>
       <c r="D228" t="n">
-        <v>0.9961258114078717</v>
+        <v>0.9993699203305419</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5878,17 +5773,17 @@
     <row r="229">
       <c r="A229" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1546_118.fasta</t>
+          <t>label_UMGS1204_41.fasta</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.0242898825374549</v>
+        <v>0.01805277095459557</v>
       </c>
       <c r="C229" t="n">
-        <v>0.9757101174625451</v>
+        <v>0.9819472290454044</v>
       </c>
       <c r="D229" t="n">
-        <v>0.9757101174625451</v>
+        <v>0.9819472290454044</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5899,17 +5794,17 @@
     <row r="230">
       <c r="A230" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1546_57.fasta</t>
+          <t>label_UMGS1252_52.fasta</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.005410773605277308</v>
+        <v>0.009644617454528492</v>
       </c>
       <c r="C230" t="n">
-        <v>0.9945892263947227</v>
+        <v>0.9903553825454715</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9945892263947227</v>
+        <v>0.9903553825454715</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5920,17 +5815,17 @@
     <row r="231">
       <c r="A231" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1565_51.fasta</t>
+          <t>label_UMGS1321_11.fasta</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.005282249800212857</v>
+        <v>0.00224324397312381</v>
       </c>
       <c r="C231" t="n">
-        <v>0.9947177501997871</v>
+        <v>0.9977567560268762</v>
       </c>
       <c r="D231" t="n">
-        <v>0.9947177501997871</v>
+        <v>0.9977567560268762</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5941,17 +5836,17 @@
     <row r="232">
       <c r="A232" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1589_81.fasta</t>
+          <t>label_UMGS1380_48.fasta</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.0112608796606587</v>
+        <v>0.001553186386083927</v>
       </c>
       <c r="C232" t="n">
-        <v>0.9887391203393413</v>
+        <v>0.9984468136139161</v>
       </c>
       <c r="D232" t="n">
-        <v>0.9887391203393413</v>
+        <v>0.9984468136139161</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5962,17 +5857,17 @@
     <row r="233">
       <c r="A233" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1667_28.fasta</t>
+          <t>label_UMGS1401_100.fasta</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.003506724053774835</v>
+        <v>0.003520436442613906</v>
       </c>
       <c r="C233" t="n">
-        <v>0.9964932759462252</v>
+        <v>0.9964795635573861</v>
       </c>
       <c r="D233" t="n">
-        <v>0.9964932759462252</v>
+        <v>0.9964795635573861</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5983,38 +5878,38 @@
     <row r="234">
       <c r="A234" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1701_73.fasta</t>
+          <t>label_UMGS1418_72.fasta</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.005680841636968027</v>
+        <v>0.6557761862915265</v>
       </c>
       <c r="C234" t="n">
-        <v>0.994319158363032</v>
+        <v>0.3442238137084735</v>
       </c>
       <c r="D234" t="n">
-        <v>0.994319158363032</v>
+        <v>0.6557761862915265</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1701_98.fasta</t>
+          <t>label_UMGS1418_89.fasta</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.03119637169491918</v>
+        <v>0.1212458538543463</v>
       </c>
       <c r="C235" t="n">
-        <v>0.9688036283050808</v>
+        <v>0.8787541461456537</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9688036283050808</v>
+        <v>0.8787541461456537</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -6025,17 +5920,17 @@
     <row r="236">
       <c r="A236" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1721_10.fasta</t>
+          <t>label_UMGS1421_75.fasta</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.01091858817306224</v>
+        <v>0.004148550889855662</v>
       </c>
       <c r="C236" t="n">
-        <v>0.9890814118269378</v>
+        <v>0.9958514491101443</v>
       </c>
       <c r="D236" t="n">
-        <v>0.9890814118269378</v>
+        <v>0.9958514491101443</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -6046,17 +5941,17 @@
     <row r="237">
       <c r="A237" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1721_50.fasta</t>
+          <t>label_UMGS1424_132.fasta</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.01759647732622638</v>
+        <v>0.0001913510116809957</v>
       </c>
       <c r="C237" t="n">
-        <v>0.9824035226737736</v>
+        <v>0.999808648988319</v>
       </c>
       <c r="D237" t="n">
-        <v>0.9824035226737736</v>
+        <v>0.999808648988319</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -6067,17 +5962,17 @@
     <row r="238">
       <c r="A238" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1745_87.fasta</t>
+          <t>label_UMGS1475_29.fasta</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.1896832974968343</v>
+        <v>0.003540747507818409</v>
       </c>
       <c r="C238" t="n">
-        <v>0.8103167025031657</v>
+        <v>0.9964592524921816</v>
       </c>
       <c r="D238" t="n">
-        <v>0.8103167025031657</v>
+        <v>0.9964592524921816</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -6088,17 +5983,17 @@
     <row r="239">
       <c r="A239" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1841_113.fasta</t>
+          <t>label_UMGS1499_117.fasta</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.07204893995315065</v>
+        <v>0.01641725204623712</v>
       </c>
       <c r="C239" t="n">
-        <v>0.9279510600468494</v>
+        <v>0.9835827479537629</v>
       </c>
       <c r="D239" t="n">
-        <v>0.9279510600468494</v>
+        <v>0.9835827479537629</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -6109,17 +6004,17 @@
     <row r="240">
       <c r="A240" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1862_66.fasta</t>
+          <t>label_UMGS1519_29.fasta</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.007492461100347181</v>
+        <v>0.3641513237047223</v>
       </c>
       <c r="C240" t="n">
-        <v>0.9925075388996528</v>
+        <v>0.6358486762952777</v>
       </c>
       <c r="D240" t="n">
-        <v>0.9925075388996528</v>
+        <v>0.6358486762952777</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -6130,17 +6025,17 @@
     <row r="241">
       <c r="A241" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1913_87.fasta</t>
+          <t>label_UMGS1545_125.fasta</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.1856390589869141</v>
+        <v>0.04938079983747767</v>
       </c>
       <c r="C241" t="n">
-        <v>0.8143609410130859</v>
+        <v>0.9506192001625223</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8143609410130859</v>
+        <v>0.9506192001625223</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -6151,17 +6046,17 @@
     <row r="242">
       <c r="A242" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1943_16.fasta</t>
+          <t>label_UMGS1606_41.fasta</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.01096176339347876</v>
+        <v>0.03990217831507049</v>
       </c>
       <c r="C242" t="n">
-        <v>0.9890382366065212</v>
+        <v>0.9600978216849295</v>
       </c>
       <c r="D242" t="n">
-        <v>0.9890382366065212</v>
+        <v>0.9600978216849295</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -6172,17 +6067,17 @@
     <row r="243">
       <c r="A243" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1943_27.fasta</t>
+          <t>label_UMGS1653_132.fasta</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.01586496972050577</v>
+        <v>0.03952744825402654</v>
       </c>
       <c r="C243" t="n">
-        <v>0.9841350302794942</v>
+        <v>0.9604725517459735</v>
       </c>
       <c r="D243" t="n">
-        <v>0.9841350302794942</v>
+        <v>0.9604725517459735</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -6193,17 +6088,17 @@
     <row r="244">
       <c r="A244" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1970_42.fasta</t>
+          <t>label_UMGS1667_34.fasta</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.008530923004670954</v>
+        <v>0.01831881442716055</v>
       </c>
       <c r="C244" t="n">
-        <v>0.991469076995329</v>
+        <v>0.9816811855728395</v>
       </c>
       <c r="D244" t="n">
-        <v>0.991469076995329</v>
+        <v>0.9816811855728395</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -6214,17 +6109,17 @@
     <row r="245">
       <c r="A245" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1991_38.fasta</t>
+          <t>label_UMGS1695_140.fasta</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.006433554941954523</v>
+        <v>0.01191292395376198</v>
       </c>
       <c r="C245" t="n">
-        <v>0.9935664450580455</v>
+        <v>0.988087076046238</v>
       </c>
       <c r="D245" t="n">
-        <v>0.9935664450580455</v>
+        <v>0.988087076046238</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -6235,17 +6130,17 @@
     <row r="246">
       <c r="A246" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2029_40.fasta</t>
+          <t>label_UMGS1720_96.fasta</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.008692263389515453</v>
+        <v>0.0003901148069148652</v>
       </c>
       <c r="C246" t="n">
-        <v>0.9913077366104845</v>
+        <v>0.9996098851930851</v>
       </c>
       <c r="D246" t="n">
-        <v>0.9913077366104845</v>
+        <v>0.9996098851930851</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -6256,17 +6151,17 @@
     <row r="247">
       <c r="A247" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2052_0.fasta</t>
+          <t>label_UMGS1721_85.fasta</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.007455834405880823</v>
+        <v>0.009511353464142891</v>
       </c>
       <c r="C247" t="n">
-        <v>0.9925441655941192</v>
+        <v>0.9904886465358571</v>
       </c>
       <c r="D247" t="n">
-        <v>0.9925441655941192</v>
+        <v>0.9904886465358571</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -6277,17 +6172,17 @@
     <row r="248">
       <c r="A248" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS296_40.fasta</t>
+          <t>label_UMGS1724_33.fasta</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.005230144928017211</v>
+        <v>0.001988291349558469</v>
       </c>
       <c r="C248" t="n">
-        <v>0.9947698550719828</v>
+        <v>0.9980117086504415</v>
       </c>
       <c r="D248" t="n">
-        <v>0.9947698550719828</v>
+        <v>0.9980117086504415</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -6298,17 +6193,17 @@
     <row r="249">
       <c r="A249" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS297_27.fasta</t>
+          <t>label_UMGS1755_81.fasta</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.001316644198739447</v>
+        <v>0.003008600973462228</v>
       </c>
       <c r="C249" t="n">
-        <v>0.9986833558012606</v>
+        <v>0.9969913990265378</v>
       </c>
       <c r="D249" t="n">
-        <v>0.9986833558012606</v>
+        <v>0.9969913990265378</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -6319,17 +6214,17 @@
     <row r="250">
       <c r="A250" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS310_18.fasta</t>
+          <t>label_UMGS1767_30.fasta</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.002336448634418176</v>
+        <v>0.001614593269045006</v>
       </c>
       <c r="C250" t="n">
-        <v>0.9976635513655818</v>
+        <v>0.998385406730955</v>
       </c>
       <c r="D250" t="n">
-        <v>0.9976635513655818</v>
+        <v>0.998385406730955</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -6340,17 +6235,17 @@
     <row r="251">
       <c r="A251" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS311_17.fasta</t>
+          <t>label_UMGS1779_10.fasta</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.003854709001359202</v>
+        <v>0.007776884266215367</v>
       </c>
       <c r="C251" t="n">
-        <v>0.9961452909986408</v>
+        <v>0.9922231157337846</v>
       </c>
       <c r="D251" t="n">
-        <v>0.9961452909986408</v>
+        <v>0.9922231157337846</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -6361,17 +6256,17 @@
     <row r="252">
       <c r="A252" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS378_45.fasta</t>
+          <t>label_UMGS1967_48.fasta</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.04043854919650303</v>
+        <v>0.01607150853195238</v>
       </c>
       <c r="C252" t="n">
-        <v>0.959561450803497</v>
+        <v>0.9839284914680476</v>
       </c>
       <c r="D252" t="n">
-        <v>0.959561450803497</v>
+        <v>0.9839284914680476</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -6382,17 +6277,17 @@
     <row r="253">
       <c r="A253" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS383_71.fasta</t>
+          <t>label_UMGS294_19.fasta</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.013585134158135</v>
+        <v>0.002540424940885022</v>
       </c>
       <c r="C253" t="n">
-        <v>0.986414865841865</v>
+        <v>0.997459575059115</v>
       </c>
       <c r="D253" t="n">
-        <v>0.986414865841865</v>
+        <v>0.997459575059115</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -6403,17 +6298,17 @@
     <row r="254">
       <c r="A254" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS384_17.fasta</t>
+          <t>label_UMGS294_2.fasta</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.003811033448666068</v>
+        <v>0.004951956917312428</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9961889665513339</v>
+        <v>0.9950480430826876</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9961889665513339</v>
+        <v>0.9950480430826876</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -6424,17 +6319,17 @@
     <row r="255">
       <c r="A255" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS395_33.fasta</t>
+          <t>label_UMGS296_15.fasta</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.008251682016903072</v>
+        <v>0.006508580287955423</v>
       </c>
       <c r="C255" t="n">
-        <v>0.9917483179830969</v>
+        <v>0.9934914197120446</v>
       </c>
       <c r="D255" t="n">
-        <v>0.9917483179830969</v>
+        <v>0.9934914197120446</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -6445,17 +6340,17 @@
     <row r="256">
       <c r="A256" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS429_58.fasta</t>
+          <t>label_UMGS301_24.fasta</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.001959796488950505</v>
+        <v>0.004049878472317858</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9980402035110495</v>
+        <v>0.9959501215276821</v>
       </c>
       <c r="D256" t="n">
-        <v>0.9980402035110495</v>
+        <v>0.9959501215276821</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -6466,17 +6361,17 @@
     <row r="257">
       <c r="A257" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS515_65.fasta</t>
+          <t>label_UMGS304_4.fasta</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.01263551232950288</v>
+        <v>0.01923052679475523</v>
       </c>
       <c r="C257" t="n">
-        <v>0.9873644876704971</v>
+        <v>0.9807694732052448</v>
       </c>
       <c r="D257" t="n">
-        <v>0.9873644876704971</v>
+        <v>0.9807694732052448</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -6487,17 +6382,17 @@
     <row r="258">
       <c r="A258" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS517_15.fasta</t>
+          <t>label_UMGS316_9.fasta</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.002320101393618379</v>
+        <v>0.007139646539532141</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9976798986063816</v>
+        <v>0.9928603534604679</v>
       </c>
       <c r="D258" t="n">
-        <v>0.9976798986063816</v>
+        <v>0.9928603534604679</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -6508,17 +6403,17 @@
     <row r="259">
       <c r="A259" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS585_40.fasta</t>
+          <t>label_UMGS322_58.fasta</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.03412148121632985</v>
+        <v>0.009357052320555614</v>
       </c>
       <c r="C259" t="n">
-        <v>0.9658785187836701</v>
+        <v>0.9906429476794444</v>
       </c>
       <c r="D259" t="n">
-        <v>0.9658785187836701</v>
+        <v>0.9906429476794444</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -6529,17 +6424,17 @@
     <row r="260">
       <c r="A260" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS588_73.fasta</t>
+          <t>label_UMGS326_32.fasta</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.007963093590319992</v>
+        <v>0.00149062313883952</v>
       </c>
       <c r="C260" t="n">
-        <v>0.99203690640968</v>
+        <v>0.9985093768611605</v>
       </c>
       <c r="D260" t="n">
-        <v>0.99203690640968</v>
+        <v>0.9985093768611605</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -6550,17 +6445,17 @@
     <row r="261">
       <c r="A261" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS623_83.fasta</t>
+          <t>label_UMGS443_28.fasta</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.01178209703478594</v>
+        <v>0.004285093621488989</v>
       </c>
       <c r="C261" t="n">
-        <v>0.9882179029652141</v>
+        <v>0.995714906378511</v>
       </c>
       <c r="D261" t="n">
-        <v>0.9882179029652141</v>
+        <v>0.995714906378511</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -6571,17 +6466,17 @@
     <row r="262">
       <c r="A262" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_17.fasta</t>
+          <t>label_UMGS506_64.fasta</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0315362414185888</v>
+        <v>9.311885813867438e-05</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9684637585814112</v>
+        <v>0.9999068811418613</v>
       </c>
       <c r="D262" t="n">
-        <v>0.9684637585814112</v>
+        <v>0.9999068811418613</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -6592,17 +6487,17 @@
     <row r="263">
       <c r="A263" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS723_40.fasta</t>
+          <t>label_UMGS51_5.fasta</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.009809983547715451</v>
+        <v>0.0159289811830684</v>
       </c>
       <c r="C263" t="n">
-        <v>0.9901900164522845</v>
+        <v>0.9840710188169316</v>
       </c>
       <c r="D263" t="n">
-        <v>0.9901900164522845</v>
+        <v>0.9840710188169316</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -6613,17 +6508,17 @@
     <row r="264">
       <c r="A264" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS745_76.fasta</t>
+          <t>label_UMGS586_6.fasta</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.07620063698751667</v>
+        <v>0.01100991969714971</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9237993630124833</v>
+        <v>0.9889900803028503</v>
       </c>
       <c r="D264" t="n">
-        <v>0.9237993630124833</v>
+        <v>0.9889900803028503</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -6634,17 +6529,17 @@
     <row r="265">
       <c r="A265" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS751_38.fasta</t>
+          <t>label_UMGS616_8.fasta</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.007110426591437458</v>
+        <v>0.007949978625001908</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9928895734085625</v>
+        <v>0.9920500213749981</v>
       </c>
       <c r="D265" t="n">
-        <v>0.9928895734085625</v>
+        <v>0.9920500213749981</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -6655,17 +6550,17 @@
     <row r="266">
       <c r="A266" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS751_67.fasta</t>
+          <t>label_UMGS674_17.fasta</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.004832937676205296</v>
+        <v>0.003984373153420595</v>
       </c>
       <c r="C266" t="n">
-        <v>0.9951670623237947</v>
+        <v>0.9960156268465794</v>
       </c>
       <c r="D266" t="n">
-        <v>0.9951670623237947</v>
+        <v>0.9960156268465794</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -6676,17 +6571,17 @@
     <row r="267">
       <c r="A267" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS789_20.fasta</t>
+          <t>label_UMGS68_50.fasta</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.007673354009154032</v>
+        <v>0.001381304654295534</v>
       </c>
       <c r="C267" t="n">
-        <v>0.992326645990846</v>
+        <v>0.9986186953457045</v>
       </c>
       <c r="D267" t="n">
-        <v>0.992326645990846</v>
+        <v>0.9986186953457045</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -6697,17 +6592,17 @@
     <row r="268">
       <c r="A268" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS806_53.fasta</t>
+          <t>label_UMGS721_31.fasta</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.005030728512847693</v>
+        <v>0.0005861905412284374</v>
       </c>
       <c r="C268" t="n">
-        <v>0.9949692714871523</v>
+        <v>0.9994138094587716</v>
       </c>
       <c r="D268" t="n">
-        <v>0.9949692714871523</v>
+        <v>0.9994138094587716</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -6718,17 +6613,17 @@
     <row r="269">
       <c r="A269" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS817_77.fasta</t>
+          <t>label_UMGS724_45.fasta</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.009956878258387758</v>
+        <v>0.0296979299419019</v>
       </c>
       <c r="C269" t="n">
-        <v>0.9900431217416122</v>
+        <v>0.9703020700580981</v>
       </c>
       <c r="D269" t="n">
-        <v>0.9900431217416122</v>
+        <v>0.9703020700580981</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -6739,17 +6634,17 @@
     <row r="270">
       <c r="A270" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS833_2.fasta</t>
+          <t>label_UMGS742_10.fasta</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.002884357324446363</v>
+        <v>0.002484256337947577</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9971156426755536</v>
+        <v>0.9975157436620524</v>
       </c>
       <c r="D270" t="n">
-        <v>0.9971156426755536</v>
+        <v>0.9975157436620524</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -6760,17 +6655,17 @@
     <row r="271">
       <c r="A271" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS851_42.fasta</t>
+          <t>label_UMGS742_38.fasta</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.00804238135658486</v>
+        <v>0.001125530816555975</v>
       </c>
       <c r="C271" t="n">
-        <v>0.9919576186434151</v>
+        <v>0.998874469183444</v>
       </c>
       <c r="D271" t="n">
-        <v>0.9919576186434151</v>
+        <v>0.998874469183444</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -6781,17 +6676,17 @@
     <row r="272">
       <c r="A272" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS877_77.fasta</t>
+          <t>label_UMGS804_5.fasta</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.002474665728666947</v>
+        <v>0.01014988440037989</v>
       </c>
       <c r="C272" t="n">
-        <v>0.9975253342713331</v>
+        <v>0.9898501155996201</v>
       </c>
       <c r="D272" t="n">
-        <v>0.9975253342713331</v>
+        <v>0.9898501155996201</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -6802,17 +6697,17 @@
     <row r="273">
       <c r="A273" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS955_12.fasta</t>
+          <t>label_UMGS876_14.fasta</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.006582952901528438</v>
+        <v>0.01029376109721802</v>
       </c>
       <c r="C273" t="n">
-        <v>0.9934170470984716</v>
+        <v>0.9897062389027821</v>
       </c>
       <c r="D273" t="n">
-        <v>0.9934170470984716</v>
+        <v>0.9897062389027821</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -6823,17 +6718,17 @@
     <row r="274">
       <c r="A274" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS959_67.fasta</t>
+          <t>label_UMGS877_64.fasta</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.04873050973974847</v>
+        <v>0.002454855727034966</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9512694902602515</v>
+        <v>0.997545144272965</v>
       </c>
       <c r="D274" t="n">
-        <v>0.9512694902602515</v>
+        <v>0.997545144272965</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6844,17 +6739,17 @@
     <row r="275">
       <c r="A275" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS962_76.fasta</t>
+          <t>label_UMGS892_77.fasta</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.001472297807618372</v>
+        <v>0.005705096317417446</v>
       </c>
       <c r="C275" t="n">
-        <v>0.9985277021923816</v>
+        <v>0.9942949036825826</v>
       </c>
       <c r="D275" t="n">
-        <v>0.9985277021923816</v>
+        <v>0.9942949036825826</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6865,17 +6760,17 @@
     <row r="276">
       <c r="A276" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS969_39.fasta</t>
+          <t>label_UMGS943_57.fasta</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.001800945218119576</v>
+        <v>0.008937144515342776</v>
       </c>
       <c r="C276" t="n">
-        <v>0.9981990547818804</v>
+        <v>0.9910628554846572</v>
       </c>
       <c r="D276" t="n">
-        <v>0.9981990547818804</v>
+        <v>0.9910628554846572</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -6886,17 +6781,17 @@
     <row r="277">
       <c r="A277" s="11" t="inlineStr">
         <is>
-          <t>label_14207_7_25_24.fasta</t>
+          <t>label_UMGS962_116.fasta</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.005080749511700899</v>
+        <v>0.001201713466401633</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9949192504882991</v>
+        <v>0.9987982865335984</v>
       </c>
       <c r="D277" t="n">
-        <v>0.9949192504882991</v>
+        <v>0.9987982865335984</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -6907,17 +6802,17 @@
     <row r="278">
       <c r="A278" s="11" t="inlineStr">
         <is>
-          <t>label_18048_2_57_0.fasta</t>
+          <t>label_UMGS988_12.fasta</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.006349349227353085</v>
+        <v>0.01174946870978977</v>
       </c>
       <c r="C278" t="n">
-        <v>0.9936506507726469</v>
+        <v>0.9882505312902102</v>
       </c>
       <c r="D278" t="n">
-        <v>0.9936506507726469</v>
+        <v>0.9882505312902102</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6928,17 +6823,17 @@
     <row r="279">
       <c r="A279" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1022_53.fasta</t>
+          <t>label_GCF_000169035_9.fasta</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.001873450245936659</v>
+        <v>0.0119013907779757</v>
       </c>
       <c r="C279" t="n">
-        <v>0.9981265497540633</v>
+        <v>0.9880986092220243</v>
       </c>
       <c r="D279" t="n">
-        <v>0.9981265497540633</v>
+        <v>0.9880986092220243</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -6949,17 +6844,17 @@
     <row r="280">
       <c r="A280" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1026_141.fasta</t>
+          <t>label_UMGS1023_21.fasta</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.003362007806563816</v>
+        <v>0.01193491746394182</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9966379921934362</v>
+        <v>0.9880650825360582</v>
       </c>
       <c r="D280" t="n">
-        <v>0.9966379921934362</v>
+        <v>0.9880650825360582</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -6970,17 +6865,17 @@
     <row r="281">
       <c r="A281" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1047_37.fasta</t>
+          <t>label_UMGS1026_77.fasta</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.007394212554135193</v>
+        <v>0.01839044327365791</v>
       </c>
       <c r="C281" t="n">
-        <v>0.9926057874458648</v>
+        <v>0.9816095567263421</v>
       </c>
       <c r="D281" t="n">
-        <v>0.9926057874458648</v>
+        <v>0.9816095567263421</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6991,17 +6886,17 @@
     <row r="282">
       <c r="A282" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1080_7.fasta</t>
+          <t>label_UMGS1080_37.fasta</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.1362338102202452</v>
+        <v>0.2896786194083742</v>
       </c>
       <c r="C282" t="n">
-        <v>0.8637661897797548</v>
+        <v>0.7103213805916259</v>
       </c>
       <c r="D282" t="n">
-        <v>0.8637661897797548</v>
+        <v>0.7103213805916259</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -7012,17 +6907,17 @@
     <row r="283">
       <c r="A283" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1086_46.fasta</t>
+          <t>label_UMGS1094_27.fasta</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.02383646652847237</v>
+        <v>0.008116222658468897</v>
       </c>
       <c r="C283" t="n">
-        <v>0.9761635334715276</v>
+        <v>0.9918837773415311</v>
       </c>
       <c r="D283" t="n">
-        <v>0.9761635334715276</v>
+        <v>0.9918837773415311</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -7033,17 +6928,17 @@
     <row r="284">
       <c r="A284" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1089_15.fasta</t>
+          <t>label_UMGS1094_64.fasta</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.005793011169020867</v>
+        <v>0.01284888795231465</v>
       </c>
       <c r="C284" t="n">
-        <v>0.9942069888309791</v>
+        <v>0.9871511120476854</v>
       </c>
       <c r="D284" t="n">
-        <v>0.9942069888309791</v>
+        <v>0.9871511120476854</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -7054,17 +6949,17 @@
     <row r="285">
       <c r="A285" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1094_49.fasta</t>
+          <t>label_UMGS1121_34.fasta</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.01046687258728995</v>
+        <v>0.04865381426210424</v>
       </c>
       <c r="C285" t="n">
-        <v>0.98953312741271</v>
+        <v>0.9513461857378958</v>
       </c>
       <c r="D285" t="n">
-        <v>0.98953312741271</v>
+        <v>0.9513461857378958</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -7075,17 +6970,17 @@
     <row r="286">
       <c r="A286" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1112_9.fasta</t>
+          <t>label_UMGS1139_16.fasta</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.003770799908174527</v>
+        <v>0.01375388744031891</v>
       </c>
       <c r="C286" t="n">
-        <v>0.9962292000918255</v>
+        <v>0.9862461125596811</v>
       </c>
       <c r="D286" t="n">
-        <v>0.9962292000918255</v>
+        <v>0.9862461125596811</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -7096,17 +6991,17 @@
     <row r="287">
       <c r="A287" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1117_43.fasta</t>
+          <t>label_UMGS1139_45.fasta</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.006093620568344504</v>
+        <v>0.005642616150907332</v>
       </c>
       <c r="C287" t="n">
-        <v>0.9939063794316555</v>
+        <v>0.9943573838490927</v>
       </c>
       <c r="D287" t="n">
-        <v>0.9939063794316555</v>
+        <v>0.9943573838490927</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -7117,17 +7012,17 @@
     <row r="288">
       <c r="A288" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1131_35.fasta</t>
+          <t>label_UMGS1142_89.fasta</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.006379626110461833</v>
+        <v>0.0355106716641298</v>
       </c>
       <c r="C288" t="n">
-        <v>0.9936203738895382</v>
+        <v>0.9644893283358702</v>
       </c>
       <c r="D288" t="n">
-        <v>0.9936203738895382</v>
+        <v>0.9644893283358702</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -7138,17 +7033,17 @@
     <row r="289">
       <c r="A289" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1139_121.fasta</t>
+          <t>label_UMGS1146_100.fasta</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.003356412388201835</v>
+        <v>0.2233136021254402</v>
       </c>
       <c r="C289" t="n">
-        <v>0.9966435876117982</v>
+        <v>0.7766863978745598</v>
       </c>
       <c r="D289" t="n">
-        <v>0.9966435876117982</v>
+        <v>0.7766863978745598</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -7159,17 +7054,17 @@
     <row r="290">
       <c r="A290" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1146_37.fasta</t>
+          <t>label_UMGS1154_35.fasta</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.003962553696958304</v>
+        <v>0.01610602647273451</v>
       </c>
       <c r="C290" t="n">
-        <v>0.9960374463030417</v>
+        <v>0.9838939735272655</v>
       </c>
       <c r="D290" t="n">
-        <v>0.9960374463030417</v>
+        <v>0.9838939735272655</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -7180,17 +7075,17 @@
     <row r="291">
       <c r="A291" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1146_62.fasta</t>
+          <t>label_UMGS1160_25.fasta</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.003713964224776101</v>
+        <v>0.02002002482579046</v>
       </c>
       <c r="C291" t="n">
-        <v>0.9962860357752239</v>
+        <v>0.9799799751742095</v>
       </c>
       <c r="D291" t="n">
-        <v>0.9962860357752239</v>
+        <v>0.9799799751742095</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -7201,17 +7096,17 @@
     <row r="292">
       <c r="A292" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1160_70.fasta</t>
+          <t>label_UMGS1166_104.fasta</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.01639352015712303</v>
+        <v>0.008487899849403902</v>
       </c>
       <c r="C292" t="n">
-        <v>0.983606479842877</v>
+        <v>0.9915121001505961</v>
       </c>
       <c r="D292" t="n">
-        <v>0.983606479842877</v>
+        <v>0.9915121001505961</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -7222,17 +7117,17 @@
     <row r="293">
       <c r="A293" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1161_14.fasta</t>
+          <t>label_UMGS1166_56.fasta</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.005341783067424277</v>
+        <v>0.007330964729780566</v>
       </c>
       <c r="C293" t="n">
-        <v>0.9946582169325757</v>
+        <v>0.9926690352702194</v>
       </c>
       <c r="D293" t="n">
-        <v>0.9946582169325757</v>
+        <v>0.9926690352702194</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -7243,17 +7138,17 @@
     <row r="294">
       <c r="A294" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1173_1.fasta</t>
+          <t>label_UMGS1200_14.fasta</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.005845547650591643</v>
+        <v>0.008743749759691166</v>
       </c>
       <c r="C294" t="n">
-        <v>0.9941544523494084</v>
+        <v>0.9912562502403088</v>
       </c>
       <c r="D294" t="n">
-        <v>0.9941544523494084</v>
+        <v>0.9912562502403088</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -7264,17 +7159,17 @@
     <row r="295">
       <c r="A295" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1174_28.fasta</t>
+          <t>label_UMGS1200_83.fasta</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.00447857202974733</v>
+        <v>0.006011263166127767</v>
       </c>
       <c r="C295" t="n">
-        <v>0.9955214279702527</v>
+        <v>0.9939887368338722</v>
       </c>
       <c r="D295" t="n">
-        <v>0.9955214279702527</v>
+        <v>0.9939887368338722</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -7285,17 +7180,17 @@
     <row r="296">
       <c r="A296" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1186_41.fasta</t>
+          <t>label_UMGS1209_17.fasta</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.0006300796694580502</v>
+        <v>0.01111814993425631</v>
       </c>
       <c r="C296" t="n">
-        <v>0.9993699203305419</v>
+        <v>0.9888818500657437</v>
       </c>
       <c r="D296" t="n">
-        <v>0.9993699203305419</v>
+        <v>0.9888818500657437</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -7306,17 +7201,17 @@
     <row r="297">
       <c r="A297" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1204_41.fasta</t>
+          <t>label_UMGS1277_90.fasta</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.01805277095459557</v>
+        <v>0.06655527985208498</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9819472290454044</v>
+        <v>0.933444720147915</v>
       </c>
       <c r="D297" t="n">
-        <v>0.9819472290454044</v>
+        <v>0.933444720147915</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -7327,17 +7222,17 @@
     <row r="298">
       <c r="A298" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1252_52.fasta</t>
+          <t>label_UMGS1278_123.fasta</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.009644617454528492</v>
+        <v>0.02013473464011717</v>
       </c>
       <c r="C298" t="n">
-        <v>0.9903553825454715</v>
+        <v>0.9798652653598828</v>
       </c>
       <c r="D298" t="n">
-        <v>0.9903553825454715</v>
+        <v>0.9798652653598828</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -7348,17 +7243,17 @@
     <row r="299">
       <c r="A299" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1321_11.fasta</t>
+          <t>label_UMGS1336_24.fasta</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.00224324397312381</v>
+        <v>0.03650217805764511</v>
       </c>
       <c r="C299" t="n">
-        <v>0.9977567560268762</v>
+        <v>0.963497821942355</v>
       </c>
       <c r="D299" t="n">
-        <v>0.9977567560268762</v>
+        <v>0.963497821942355</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -7369,17 +7264,17 @@
     <row r="300">
       <c r="A300" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1380_48.fasta</t>
+          <t>label_UMGS1378_43.fasta</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.001553186386083927</v>
+        <v>0.007481961566061623</v>
       </c>
       <c r="C300" t="n">
-        <v>0.9984468136139161</v>
+        <v>0.9925180384339384</v>
       </c>
       <c r="D300" t="n">
-        <v>0.9984468136139161</v>
+        <v>0.9925180384339384</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -7390,17 +7285,17 @@
     <row r="301">
       <c r="A301" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1401_100.fasta</t>
+          <t>label_UMGS1386_21.fasta</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.003520436442613906</v>
+        <v>0.02330974324274726</v>
       </c>
       <c r="C301" t="n">
-        <v>0.9964795635573861</v>
+        <v>0.9766902567572527</v>
       </c>
       <c r="D301" t="n">
-        <v>0.9964795635573861</v>
+        <v>0.9766902567572527</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -7411,38 +7306,38 @@
     <row r="302">
       <c r="A302" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1418_72.fasta</t>
+          <t>label_UMGS1482_67.fasta</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.6557761862915265</v>
+        <v>0.02624451744460388</v>
       </c>
       <c r="C302" t="n">
-        <v>0.3442238137084735</v>
+        <v>0.9737554825553961</v>
       </c>
       <c r="D302" t="n">
-        <v>0.6557761862915265</v>
+        <v>0.9737554825553961</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1418_89.fasta</t>
+          <t>label_UMGS1489_6.fasta</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.1212458538543463</v>
+        <v>0.008092976029550281</v>
       </c>
       <c r="C303" t="n">
-        <v>0.8787541461456537</v>
+        <v>0.9919070239704497</v>
       </c>
       <c r="D303" t="n">
-        <v>0.8787541461456537</v>
+        <v>0.9919070239704497</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -7453,17 +7348,17 @@
     <row r="304">
       <c r="A304" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1421_75.fasta</t>
+          <t>label_UMGS1499_5.fasta</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.004148550889855662</v>
+        <v>0.01017090914276431</v>
       </c>
       <c r="C304" t="n">
-        <v>0.9958514491101443</v>
+        <v>0.9898290908572357</v>
       </c>
       <c r="D304" t="n">
-        <v>0.9958514491101443</v>
+        <v>0.9898290908572357</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -7474,17 +7369,17 @@
     <row r="305">
       <c r="A305" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1424_132.fasta</t>
+          <t>label_UMGS1608_7.fasta</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0001913510116809957</v>
+        <v>0.01080734275928918</v>
       </c>
       <c r="C305" t="n">
-        <v>0.999808648988319</v>
+        <v>0.9891926572407108</v>
       </c>
       <c r="D305" t="n">
-        <v>0.999808648988319</v>
+        <v>0.9891926572407108</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -7495,17 +7390,17 @@
     <row r="306">
       <c r="A306" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1475_29.fasta</t>
+          <t>label_UMGS1638_52.fasta</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.003540747507818409</v>
+        <v>0.01225789898293839</v>
       </c>
       <c r="C306" t="n">
-        <v>0.9964592524921816</v>
+        <v>0.9877421010170616</v>
       </c>
       <c r="D306" t="n">
-        <v>0.9964592524921816</v>
+        <v>0.9877421010170616</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -7516,17 +7411,17 @@
     <row r="307">
       <c r="A307" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1499_117.fasta</t>
+          <t>label_UMGS1706_16.fasta</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.01641725204623712</v>
+        <v>0.04523421765151114</v>
       </c>
       <c r="C307" t="n">
-        <v>0.9835827479537629</v>
+        <v>0.9547657823484889</v>
       </c>
       <c r="D307" t="n">
-        <v>0.9835827479537629</v>
+        <v>0.9547657823484889</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -7537,17 +7432,17 @@
     <row r="308">
       <c r="A308" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1519_29.fasta</t>
+          <t>label_UMGS1721_101.fasta</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.3641513237047223</v>
+        <v>0.02011519576930154</v>
       </c>
       <c r="C308" t="n">
-        <v>0.6358486762952777</v>
+        <v>0.9798848042306985</v>
       </c>
       <c r="D308" t="n">
-        <v>0.6358486762952777</v>
+        <v>0.9798848042306985</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -7558,17 +7453,17 @@
     <row r="309">
       <c r="A309" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1545_125.fasta</t>
+          <t>label_UMGS1721_77.fasta</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.04938079983747767</v>
+        <v>0.005823740719757997</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9506192001625223</v>
+        <v>0.994176259280242</v>
       </c>
       <c r="D309" t="n">
-        <v>0.9506192001625223</v>
+        <v>0.994176259280242</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -7579,17 +7474,17 @@
     <row r="310">
       <c r="A310" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1606_41.fasta</t>
+          <t>label_UMGS1724_1.fasta</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.03990217831507049</v>
+        <v>0.0159855398573655</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9600978216849295</v>
+        <v>0.9840144601426345</v>
       </c>
       <c r="D310" t="n">
-        <v>0.9600978216849295</v>
+        <v>0.9840144601426345</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -7600,17 +7495,17 @@
     <row r="311">
       <c r="A311" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1653_132.fasta</t>
+          <t>label_UMGS1726_43.fasta</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.03952744825402654</v>
+        <v>0.01039801786794836</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9604725517459735</v>
+        <v>0.9896019821320516</v>
       </c>
       <c r="D311" t="n">
-        <v>0.9604725517459735</v>
+        <v>0.9896019821320516</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -7621,17 +7516,17 @@
     <row r="312">
       <c r="A312" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1667_34.fasta</t>
+          <t>label_UMGS1726_82.fasta</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.01831881442716055</v>
+        <v>0.006425403985553912</v>
       </c>
       <c r="C312" t="n">
-        <v>0.9816811855728395</v>
+        <v>0.9935745960144461</v>
       </c>
       <c r="D312" t="n">
-        <v>0.9816811855728395</v>
+        <v>0.9935745960144461</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -7642,17 +7537,17 @@
     <row r="313">
       <c r="A313" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1695_140.fasta</t>
+          <t>label_UMGS1729_19.fasta</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.01191292395376198</v>
+        <v>0.05513110112941511</v>
       </c>
       <c r="C313" t="n">
-        <v>0.988087076046238</v>
+        <v>0.9448688988705849</v>
       </c>
       <c r="D313" t="n">
-        <v>0.988087076046238</v>
+        <v>0.9448688988705849</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -7663,17 +7558,17 @@
     <row r="314">
       <c r="A314" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1720_96.fasta</t>
+          <t>label_UMGS1755_19.fasta</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.0003901148069148652</v>
+        <v>0.005694347878582362</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9996098851930851</v>
+        <v>0.9943056521214176</v>
       </c>
       <c r="D314" t="n">
-        <v>0.9996098851930851</v>
+        <v>0.9943056521214176</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -7684,17 +7579,17 @@
     <row r="315">
       <c r="A315" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1721_85.fasta</t>
+          <t>label_UMGS1767_44.fasta</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.009511353464142891</v>
+        <v>0.04611842182367676</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9904886465358571</v>
+        <v>0.9538815781763232</v>
       </c>
       <c r="D315" t="n">
-        <v>0.9904886465358571</v>
+        <v>0.9538815781763232</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -7705,17 +7600,17 @@
     <row r="316">
       <c r="A316" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1724_33.fasta</t>
+          <t>label_UMGS1773_110.fasta</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.001988291349558469</v>
+        <v>0.009376221486185221</v>
       </c>
       <c r="C316" t="n">
-        <v>0.9980117086504415</v>
+        <v>0.9906237785138148</v>
       </c>
       <c r="D316" t="n">
-        <v>0.9980117086504415</v>
+        <v>0.9906237785138148</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -7726,17 +7621,17 @@
     <row r="317">
       <c r="A317" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1755_81.fasta</t>
+          <t>label_UMGS1834_89.fasta</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.003008600973462228</v>
+        <v>0.01312028956066746</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9969913990265378</v>
+        <v>0.9868797104393325</v>
       </c>
       <c r="D317" t="n">
-        <v>0.9969913990265378</v>
+        <v>0.9868797104393325</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -7747,17 +7642,17 @@
     <row r="318">
       <c r="A318" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1767_30.fasta</t>
+          <t>label_UMGS1910_68.fasta</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.001614593269045006</v>
+        <v>0.007656332614105588</v>
       </c>
       <c r="C318" t="n">
-        <v>0.998385406730955</v>
+        <v>0.9923436673858944</v>
       </c>
       <c r="D318" t="n">
-        <v>0.998385406730955</v>
+        <v>0.9923436673858944</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -7768,17 +7663,17 @@
     <row r="319">
       <c r="A319" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1779_10.fasta</t>
+          <t>label_UMGS2047_61.fasta</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.007776884266215367</v>
+        <v>0.07157450506953379</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9922231157337846</v>
+        <v>0.9284254949304662</v>
       </c>
       <c r="D319" t="n">
-        <v>0.9922231157337846</v>
+        <v>0.9284254949304662</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -7789,17 +7684,17 @@
     <row r="320">
       <c r="A320" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1967_48.fasta</t>
+          <t>label_UMGS2066_35.fasta</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.01607150853195238</v>
+        <v>0.007357049039973695</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9839284914680476</v>
+        <v>0.9926429509600263</v>
       </c>
       <c r="D320" t="n">
-        <v>0.9839284914680476</v>
+        <v>0.9926429509600263</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -7810,17 +7705,17 @@
     <row r="321">
       <c r="A321" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS294_19.fasta</t>
+          <t>label_UMGS293_15.fasta</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.002540424940885022</v>
+        <v>0.007140049125213265</v>
       </c>
       <c r="C321" t="n">
-        <v>0.997459575059115</v>
+        <v>0.9928599508747867</v>
       </c>
       <c r="D321" t="n">
-        <v>0.997459575059115</v>
+        <v>0.9928599508747867</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -7831,17 +7726,17 @@
     <row r="322">
       <c r="A322" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS294_2.fasta</t>
+          <t>label_UMGS304_13.fasta</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.004951956917312428</v>
+        <v>0.02062467465984641</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9950480430826876</v>
+        <v>0.9793753253401536</v>
       </c>
       <c r="D322" t="n">
-        <v>0.9950480430826876</v>
+        <v>0.9793753253401536</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -7852,17 +7747,17 @@
     <row r="323">
       <c r="A323" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS296_15.fasta</t>
+          <t>label_UMGS304_22.fasta</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.006508580287955423</v>
+        <v>0.04428466088232864</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9934914197120446</v>
+        <v>0.9557153391176714</v>
       </c>
       <c r="D323" t="n">
-        <v>0.9934914197120446</v>
+        <v>0.9557153391176714</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -7873,17 +7768,17 @@
     <row r="324">
       <c r="A324" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS301_24.fasta</t>
+          <t>label_UMGS358_37.fasta</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.004049878472317858</v>
+        <v>0.01298674905707431</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9959501215276821</v>
+        <v>0.9870132509429257</v>
       </c>
       <c r="D324" t="n">
-        <v>0.9959501215276821</v>
+        <v>0.9870132509429257</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -7894,17 +7789,17 @@
     <row r="325">
       <c r="A325" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS304_4.fasta</t>
+          <t>label_UMGS386_35.fasta</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.01923052679475523</v>
+        <v>0.01673202674294483</v>
       </c>
       <c r="C325" t="n">
-        <v>0.9807694732052448</v>
+        <v>0.9832679732570552</v>
       </c>
       <c r="D325" t="n">
-        <v>0.9807694732052448</v>
+        <v>0.9832679732570552</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -7915,17 +7810,17 @@
     <row r="326">
       <c r="A326" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS316_9.fasta</t>
+          <t>label_UMGS396_11.fasta</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.007139646539532141</v>
+        <v>0.006862871607652088</v>
       </c>
       <c r="C326" t="n">
-        <v>0.9928603534604679</v>
+        <v>0.9931371283923479</v>
       </c>
       <c r="D326" t="n">
-        <v>0.9928603534604679</v>
+        <v>0.9931371283923479</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -7936,17 +7831,17 @@
     <row r="327">
       <c r="A327" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS322_58.fasta</t>
+          <t>label_UMGS479_25.fasta</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.009357052320555614</v>
+        <v>0.03642727570816007</v>
       </c>
       <c r="C327" t="n">
-        <v>0.9906429476794444</v>
+        <v>0.9635727242918399</v>
       </c>
       <c r="D327" t="n">
-        <v>0.9906429476794444</v>
+        <v>0.9635727242918399</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -7957,17 +7852,17 @@
     <row r="328">
       <c r="A328" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS326_32.fasta</t>
+          <t>label_UMGS481_63.fasta</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.00149062313883952</v>
+        <v>0.007893025509463913</v>
       </c>
       <c r="C328" t="n">
-        <v>0.9985093768611605</v>
+        <v>0.9921069744905361</v>
       </c>
       <c r="D328" t="n">
-        <v>0.9985093768611605</v>
+        <v>0.9921069744905361</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -7978,17 +7873,17 @@
     <row r="329">
       <c r="A329" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS443_28.fasta</t>
+          <t>label_UMGS519_75.fasta</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.004285093621488989</v>
+        <v>0.02416613080769969</v>
       </c>
       <c r="C329" t="n">
-        <v>0.995714906378511</v>
+        <v>0.9758338691923003</v>
       </c>
       <c r="D329" t="n">
-        <v>0.995714906378511</v>
+        <v>0.9758338691923003</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -7999,17 +7894,17 @@
     <row r="330">
       <c r="A330" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS506_64.fasta</t>
+          <t>label_UMGS545_53.fasta</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>9.311885813867438e-05</v>
+        <v>0.008353013079066107</v>
       </c>
       <c r="C330" t="n">
-        <v>0.9999068811418613</v>
+        <v>0.9916469869209339</v>
       </c>
       <c r="D330" t="n">
-        <v>0.9999068811418613</v>
+        <v>0.9916469869209339</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -8020,17 +7915,17 @@
     <row r="331">
       <c r="A331" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS51_5.fasta</t>
+          <t>label_UMGS634_17.fasta</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.0159289811830684</v>
+        <v>0.02589855794741847</v>
       </c>
       <c r="C331" t="n">
-        <v>0.9840710188169316</v>
+        <v>0.9741014420525815</v>
       </c>
       <c r="D331" t="n">
-        <v>0.9840710188169316</v>
+        <v>0.9741014420525815</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -8041,17 +7936,17 @@
     <row r="332">
       <c r="A332" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS586_6.fasta</t>
+          <t>label_UMGS645_13.fasta</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.01100991969714971</v>
+        <v>0.005679481067473069</v>
       </c>
       <c r="C332" t="n">
-        <v>0.9889900803028503</v>
+        <v>0.9943205189325269</v>
       </c>
       <c r="D332" t="n">
-        <v>0.9889900803028503</v>
+        <v>0.9943205189325269</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -8062,17 +7957,17 @@
     <row r="333">
       <c r="A333" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS616_8.fasta</t>
+          <t>label_UMGS645_41.fasta</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.007949978625001908</v>
+        <v>0.0056523681270515</v>
       </c>
       <c r="C333" t="n">
-        <v>0.9920500213749981</v>
+        <v>0.9943476318729485</v>
       </c>
       <c r="D333" t="n">
-        <v>0.9920500213749981</v>
+        <v>0.9943476318729485</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -8083,17 +7978,17 @@
     <row r="334">
       <c r="A334" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS674_17.fasta</t>
+          <t>label_UMGS649_27.fasta</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.003984373153420595</v>
+        <v>0.009146354962894843</v>
       </c>
       <c r="C334" t="n">
-        <v>0.9960156268465794</v>
+        <v>0.9908536450371052</v>
       </c>
       <c r="D334" t="n">
-        <v>0.9960156268465794</v>
+        <v>0.9908536450371052</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -8104,17 +7999,17 @@
     <row r="335">
       <c r="A335" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_50.fasta</t>
+          <t>label_UMGS674_70.fasta</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.001381304654295534</v>
+        <v>0.008643156451682232</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9986186953457045</v>
+        <v>0.9913568435483178</v>
       </c>
       <c r="D335" t="n">
-        <v>0.9986186953457045</v>
+        <v>0.9913568435483178</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -8125,17 +8020,17 @@
     <row r="336">
       <c r="A336" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS721_31.fasta</t>
+          <t>label_UMGS727_4.fasta</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.0005861905412284374</v>
+        <v>0.007578232912753724</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9994138094587716</v>
+        <v>0.9924217670872463</v>
       </c>
       <c r="D336" t="n">
-        <v>0.9994138094587716</v>
+        <v>0.9924217670872463</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -8146,17 +8041,17 @@
     <row r="337">
       <c r="A337" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS724_45.fasta</t>
+          <t>label_UMGS779_90.fasta</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.0296979299419019</v>
+        <v>0.007333745471584717</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9703020700580981</v>
+        <v>0.9926662545284153</v>
       </c>
       <c r="D337" t="n">
-        <v>0.9703020700580981</v>
+        <v>0.9926662545284153</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -8167,17 +8062,17 @@
     <row r="338">
       <c r="A338" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS742_10.fasta</t>
+          <t>label_UMGS806_11.fasta</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.002484256337947577</v>
+        <v>0.01202284593283931</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9975157436620524</v>
+        <v>0.9879771540671607</v>
       </c>
       <c r="D338" t="n">
-        <v>0.9975157436620524</v>
+        <v>0.9879771540671607</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -8188,17 +8083,17 @@
     <row r="339">
       <c r="A339" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS742_38.fasta</t>
+          <t>label_UMGS806_21.fasta</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.001125530816555975</v>
+        <v>0.01312087113856875</v>
       </c>
       <c r="C339" t="n">
-        <v>0.998874469183444</v>
+        <v>0.9868791288614313</v>
       </c>
       <c r="D339" t="n">
-        <v>0.998874469183444</v>
+        <v>0.9868791288614313</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -8209,17 +8104,17 @@
     <row r="340">
       <c r="A340" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS804_5.fasta</t>
+          <t>label_UMGS833_104.fasta</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.01014988440037989</v>
+        <v>0.009025552859688202</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9898501155996201</v>
+        <v>0.9909744471403118</v>
       </c>
       <c r="D340" t="n">
-        <v>0.9898501155996201</v>
+        <v>0.9909744471403118</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -8230,17 +8125,17 @@
     <row r="341">
       <c r="A341" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS876_14.fasta</t>
+          <t>label_UMGS852_20.fasta</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.01029376109721802</v>
+        <v>0.02103983144559374</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9897062389027821</v>
+        <v>0.9789601685544063</v>
       </c>
       <c r="D341" t="n">
-        <v>0.9897062389027821</v>
+        <v>0.9789601685544063</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -8251,17 +8146,17 @@
     <row r="342">
       <c r="A342" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS877_64.fasta</t>
+          <t>label_UMGS876_10.fasta</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.002454855727034966</v>
+        <v>0.01134465266516416</v>
       </c>
       <c r="C342" t="n">
-        <v>0.997545144272965</v>
+        <v>0.9886553473348358</v>
       </c>
       <c r="D342" t="n">
-        <v>0.997545144272965</v>
+        <v>0.9886553473348358</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -8272,17 +8167,17 @@
     <row r="343">
       <c r="A343" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS892_77.fasta</t>
+          <t>label_UMGS877_17.fasta</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.005705096317417446</v>
+        <v>0.009589676892548971</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9942949036825826</v>
+        <v>0.990410323107451</v>
       </c>
       <c r="D343" t="n">
-        <v>0.9942949036825826</v>
+        <v>0.990410323107451</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -8293,17 +8188,17 @@
     <row r="344">
       <c r="A344" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS943_57.fasta</t>
+          <t>label_UMGS943_8.fasta</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.008937144515342776</v>
+        <v>0.02971323702356932</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9910628554846572</v>
+        <v>0.9702867629764307</v>
       </c>
       <c r="D344" t="n">
-        <v>0.9910628554846572</v>
+        <v>0.9702867629764307</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -8314,17 +8209,17 @@
     <row r="345">
       <c r="A345" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS962_116.fasta</t>
+          <t>label_UMGS962_120.fasta</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.001201713466401633</v>
+        <v>0.01771371241269759</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9987982865335984</v>
+        <v>0.9822862875873024</v>
       </c>
       <c r="D345" t="n">
-        <v>0.9987982865335984</v>
+        <v>0.9822862875873024</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -8335,17 +8230,17 @@
     <row r="346">
       <c r="A346" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS988_12.fasta</t>
+          <t>label_UMGS988_69.fasta</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.01174946870978977</v>
+        <v>0.02729549218701433</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9882505312902102</v>
+        <v>0.9727045078129857</v>
       </c>
       <c r="D346" t="n">
-        <v>0.9882505312902102</v>
+        <v>0.9727045078129857</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -8356,1447 +8251,19 @@
     <row r="347">
       <c r="A347" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000169035_9.fasta</t>
+          <t>label_UMGS994_32.fasta</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.0119013907779757</v>
+        <v>0.02003469574069427</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9880986092220243</v>
+        <v>0.9799653042593057</v>
       </c>
       <c r="D347" t="n">
-        <v>0.9880986092220243</v>
+        <v>0.9799653042593057</v>
       </c>
       <c r="E347" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1023_21.fasta</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>0.01193491746394182</v>
-      </c>
-      <c r="C348" t="n">
-        <v>0.9880650825360582</v>
-      </c>
-      <c r="D348" t="n">
-        <v>0.9880650825360582</v>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1026_77.fasta</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>0.01839044327365791</v>
-      </c>
-      <c r="C349" t="n">
-        <v>0.9816095567263421</v>
-      </c>
-      <c r="D349" t="n">
-        <v>0.9816095567263421</v>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1080_37.fasta</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>0.2896786194083742</v>
-      </c>
-      <c r="C350" t="n">
-        <v>0.7103213805916259</v>
-      </c>
-      <c r="D350" t="n">
-        <v>0.7103213805916259</v>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1094_27.fasta</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>0.008116222658468897</v>
-      </c>
-      <c r="C351" t="n">
-        <v>0.9918837773415311</v>
-      </c>
-      <c r="D351" t="n">
-        <v>0.9918837773415311</v>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1094_64.fasta</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>0.01284888795231465</v>
-      </c>
-      <c r="C352" t="n">
-        <v>0.9871511120476854</v>
-      </c>
-      <c r="D352" t="n">
-        <v>0.9871511120476854</v>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1121_34.fasta</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>0.04865381426210424</v>
-      </c>
-      <c r="C353" t="n">
-        <v>0.9513461857378958</v>
-      </c>
-      <c r="D353" t="n">
-        <v>0.9513461857378958</v>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1139_16.fasta</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>0.01375388744031891</v>
-      </c>
-      <c r="C354" t="n">
-        <v>0.9862461125596811</v>
-      </c>
-      <c r="D354" t="n">
-        <v>0.9862461125596811</v>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1139_45.fasta</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>0.005642616150907332</v>
-      </c>
-      <c r="C355" t="n">
-        <v>0.9943573838490927</v>
-      </c>
-      <c r="D355" t="n">
-        <v>0.9943573838490927</v>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1142_89.fasta</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>0.0355106716641298</v>
-      </c>
-      <c r="C356" t="n">
-        <v>0.9644893283358702</v>
-      </c>
-      <c r="D356" t="n">
-        <v>0.9644893283358702</v>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1146_100.fasta</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>0.2233136021254402</v>
-      </c>
-      <c r="C357" t="n">
-        <v>0.7766863978745598</v>
-      </c>
-      <c r="D357" t="n">
-        <v>0.7766863978745598</v>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1154_35.fasta</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>0.01610602647273451</v>
-      </c>
-      <c r="C358" t="n">
-        <v>0.9838939735272655</v>
-      </c>
-      <c r="D358" t="n">
-        <v>0.9838939735272655</v>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1160_25.fasta</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>0.02002002482579046</v>
-      </c>
-      <c r="C359" t="n">
-        <v>0.9799799751742095</v>
-      </c>
-      <c r="D359" t="n">
-        <v>0.9799799751742095</v>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1166_104.fasta</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>0.008487899849403902</v>
-      </c>
-      <c r="C360" t="n">
-        <v>0.9915121001505961</v>
-      </c>
-      <c r="D360" t="n">
-        <v>0.9915121001505961</v>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1166_56.fasta</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>0.007330964729780566</v>
-      </c>
-      <c r="C361" t="n">
-        <v>0.9926690352702194</v>
-      </c>
-      <c r="D361" t="n">
-        <v>0.9926690352702194</v>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1200_14.fasta</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>0.008743749759691166</v>
-      </c>
-      <c r="C362" t="n">
-        <v>0.9912562502403088</v>
-      </c>
-      <c r="D362" t="n">
-        <v>0.9912562502403088</v>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1200_83.fasta</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>0.006011263166127767</v>
-      </c>
-      <c r="C363" t="n">
-        <v>0.9939887368338722</v>
-      </c>
-      <c r="D363" t="n">
-        <v>0.9939887368338722</v>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1209_17.fasta</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>0.01111814993425631</v>
-      </c>
-      <c r="C364" t="n">
-        <v>0.9888818500657437</v>
-      </c>
-      <c r="D364" t="n">
-        <v>0.9888818500657437</v>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1277_90.fasta</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>0.06655527985208498</v>
-      </c>
-      <c r="C365" t="n">
-        <v>0.933444720147915</v>
-      </c>
-      <c r="D365" t="n">
-        <v>0.933444720147915</v>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1278_123.fasta</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>0.02013473464011717</v>
-      </c>
-      <c r="C366" t="n">
-        <v>0.9798652653598828</v>
-      </c>
-      <c r="D366" t="n">
-        <v>0.9798652653598828</v>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1336_24.fasta</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>0.03650217805764511</v>
-      </c>
-      <c r="C367" t="n">
-        <v>0.963497821942355</v>
-      </c>
-      <c r="D367" t="n">
-        <v>0.963497821942355</v>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1378_43.fasta</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>0.007481961566061623</v>
-      </c>
-      <c r="C368" t="n">
-        <v>0.9925180384339384</v>
-      </c>
-      <c r="D368" t="n">
-        <v>0.9925180384339384</v>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1386_21.fasta</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>0.02330974324274726</v>
-      </c>
-      <c r="C369" t="n">
-        <v>0.9766902567572527</v>
-      </c>
-      <c r="D369" t="n">
-        <v>0.9766902567572527</v>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1482_67.fasta</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>0.02624451744460388</v>
-      </c>
-      <c r="C370" t="n">
-        <v>0.9737554825553961</v>
-      </c>
-      <c r="D370" t="n">
-        <v>0.9737554825553961</v>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1489_6.fasta</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>0.008092976029550281</v>
-      </c>
-      <c r="C371" t="n">
-        <v>0.9919070239704497</v>
-      </c>
-      <c r="D371" t="n">
-        <v>0.9919070239704497</v>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1499_5.fasta</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>0.01017090914276431</v>
-      </c>
-      <c r="C372" t="n">
-        <v>0.9898290908572357</v>
-      </c>
-      <c r="D372" t="n">
-        <v>0.9898290908572357</v>
-      </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1608_7.fasta</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>0.01080734275928918</v>
-      </c>
-      <c r="C373" t="n">
-        <v>0.9891926572407108</v>
-      </c>
-      <c r="D373" t="n">
-        <v>0.9891926572407108</v>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1638_52.fasta</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>0.01225789898293839</v>
-      </c>
-      <c r="C374" t="n">
-        <v>0.9877421010170616</v>
-      </c>
-      <c r="D374" t="n">
-        <v>0.9877421010170616</v>
-      </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1706_16.fasta</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>0.04523421765151114</v>
-      </c>
-      <c r="C375" t="n">
-        <v>0.9547657823484889</v>
-      </c>
-      <c r="D375" t="n">
-        <v>0.9547657823484889</v>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1721_101.fasta</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>0.02011519576930154</v>
-      </c>
-      <c r="C376" t="n">
-        <v>0.9798848042306985</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0.9798848042306985</v>
-      </c>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1721_77.fasta</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>0.005823740719757997</v>
-      </c>
-      <c r="C377" t="n">
-        <v>0.994176259280242</v>
-      </c>
-      <c r="D377" t="n">
-        <v>0.994176259280242</v>
-      </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1724_1.fasta</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>0.0159855398573655</v>
-      </c>
-      <c r="C378" t="n">
-        <v>0.9840144601426345</v>
-      </c>
-      <c r="D378" t="n">
-        <v>0.9840144601426345</v>
-      </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1726_43.fasta</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>0.01039801786794836</v>
-      </c>
-      <c r="C379" t="n">
-        <v>0.9896019821320516</v>
-      </c>
-      <c r="D379" t="n">
-        <v>0.9896019821320516</v>
-      </c>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1726_82.fasta</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>0.006425403985553912</v>
-      </c>
-      <c r="C380" t="n">
-        <v>0.9935745960144461</v>
-      </c>
-      <c r="D380" t="n">
-        <v>0.9935745960144461</v>
-      </c>
-      <c r="E380" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1729_19.fasta</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>0.05513110112941511</v>
-      </c>
-      <c r="C381" t="n">
-        <v>0.9448688988705849</v>
-      </c>
-      <c r="D381" t="n">
-        <v>0.9448688988705849</v>
-      </c>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1755_19.fasta</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>0.005694347878582362</v>
-      </c>
-      <c r="C382" t="n">
-        <v>0.9943056521214176</v>
-      </c>
-      <c r="D382" t="n">
-        <v>0.9943056521214176</v>
-      </c>
-      <c r="E382" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1767_44.fasta</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>0.04611842182367676</v>
-      </c>
-      <c r="C383" t="n">
-        <v>0.9538815781763232</v>
-      </c>
-      <c r="D383" t="n">
-        <v>0.9538815781763232</v>
-      </c>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1773_110.fasta</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>0.009376221486185221</v>
-      </c>
-      <c r="C384" t="n">
-        <v>0.9906237785138148</v>
-      </c>
-      <c r="D384" t="n">
-        <v>0.9906237785138148</v>
-      </c>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1834_89.fasta</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>0.01312028956066746</v>
-      </c>
-      <c r="C385" t="n">
-        <v>0.9868797104393325</v>
-      </c>
-      <c r="D385" t="n">
-        <v>0.9868797104393325</v>
-      </c>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1910_68.fasta</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>0.007656332614105588</v>
-      </c>
-      <c r="C386" t="n">
-        <v>0.9923436673858944</v>
-      </c>
-      <c r="D386" t="n">
-        <v>0.9923436673858944</v>
-      </c>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2047_61.fasta</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>0.07157450506953379</v>
-      </c>
-      <c r="C387" t="n">
-        <v>0.9284254949304662</v>
-      </c>
-      <c r="D387" t="n">
-        <v>0.9284254949304662</v>
-      </c>
-      <c r="E387" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2066_35.fasta</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>0.007357049039973695</v>
-      </c>
-      <c r="C388" t="n">
-        <v>0.9926429509600263</v>
-      </c>
-      <c r="D388" t="n">
-        <v>0.9926429509600263</v>
-      </c>
-      <c r="E388" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS293_15.fasta</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>0.007140049125213265</v>
-      </c>
-      <c r="C389" t="n">
-        <v>0.9928599508747867</v>
-      </c>
-      <c r="D389" t="n">
-        <v>0.9928599508747867</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS304_13.fasta</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>0.02062467465984641</v>
-      </c>
-      <c r="C390" t="n">
-        <v>0.9793753253401536</v>
-      </c>
-      <c r="D390" t="n">
-        <v>0.9793753253401536</v>
-      </c>
-      <c r="E390" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS304_22.fasta</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>0.04428466088232864</v>
-      </c>
-      <c r="C391" t="n">
-        <v>0.9557153391176714</v>
-      </c>
-      <c r="D391" t="n">
-        <v>0.9557153391176714</v>
-      </c>
-      <c r="E391" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS358_37.fasta</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>0.01298674905707431</v>
-      </c>
-      <c r="C392" t="n">
-        <v>0.9870132509429257</v>
-      </c>
-      <c r="D392" t="n">
-        <v>0.9870132509429257</v>
-      </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS386_35.fasta</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>0.01673202674294483</v>
-      </c>
-      <c r="C393" t="n">
-        <v>0.9832679732570552</v>
-      </c>
-      <c r="D393" t="n">
-        <v>0.9832679732570552</v>
-      </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS396_11.fasta</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>0.006862871607652088</v>
-      </c>
-      <c r="C394" t="n">
-        <v>0.9931371283923479</v>
-      </c>
-      <c r="D394" t="n">
-        <v>0.9931371283923479</v>
-      </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS479_25.fasta</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>0.03642727570816007</v>
-      </c>
-      <c r="C395" t="n">
-        <v>0.9635727242918399</v>
-      </c>
-      <c r="D395" t="n">
-        <v>0.9635727242918399</v>
-      </c>
-      <c r="E395" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS481_63.fasta</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>0.007893025509463913</v>
-      </c>
-      <c r="C396" t="n">
-        <v>0.9921069744905361</v>
-      </c>
-      <c r="D396" t="n">
-        <v>0.9921069744905361</v>
-      </c>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS519_75.fasta</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>0.02416613080769969</v>
-      </c>
-      <c r="C397" t="n">
-        <v>0.9758338691923003</v>
-      </c>
-      <c r="D397" t="n">
-        <v>0.9758338691923003</v>
-      </c>
-      <c r="E397" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS545_53.fasta</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
-        <v>0.008353013079066107</v>
-      </c>
-      <c r="C398" t="n">
-        <v>0.9916469869209339</v>
-      </c>
-      <c r="D398" t="n">
-        <v>0.9916469869209339</v>
-      </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS634_17.fasta</t>
-        </is>
-      </c>
-      <c r="B399" t="n">
-        <v>0.02589855794741847</v>
-      </c>
-      <c r="C399" t="n">
-        <v>0.9741014420525815</v>
-      </c>
-      <c r="D399" t="n">
-        <v>0.9741014420525815</v>
-      </c>
-      <c r="E399" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS645_13.fasta</t>
-        </is>
-      </c>
-      <c r="B400" t="n">
-        <v>0.005679481067473069</v>
-      </c>
-      <c r="C400" t="n">
-        <v>0.9943205189325269</v>
-      </c>
-      <c r="D400" t="n">
-        <v>0.9943205189325269</v>
-      </c>
-      <c r="E400" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS645_41.fasta</t>
-        </is>
-      </c>
-      <c r="B401" t="n">
-        <v>0.0056523681270515</v>
-      </c>
-      <c r="C401" t="n">
-        <v>0.9943476318729485</v>
-      </c>
-      <c r="D401" t="n">
-        <v>0.9943476318729485</v>
-      </c>
-      <c r="E401" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS649_27.fasta</t>
-        </is>
-      </c>
-      <c r="B402" t="n">
-        <v>0.009146354962894843</v>
-      </c>
-      <c r="C402" t="n">
-        <v>0.9908536450371052</v>
-      </c>
-      <c r="D402" t="n">
-        <v>0.9908536450371052</v>
-      </c>
-      <c r="E402" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS674_70.fasta</t>
-        </is>
-      </c>
-      <c r="B403" t="n">
-        <v>0.008643156451682232</v>
-      </c>
-      <c r="C403" t="n">
-        <v>0.9913568435483178</v>
-      </c>
-      <c r="D403" t="n">
-        <v>0.9913568435483178</v>
-      </c>
-      <c r="E403" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS727_4.fasta</t>
-        </is>
-      </c>
-      <c r="B404" t="n">
-        <v>0.007578232912753724</v>
-      </c>
-      <c r="C404" t="n">
-        <v>0.9924217670872463</v>
-      </c>
-      <c r="D404" t="n">
-        <v>0.9924217670872463</v>
-      </c>
-      <c r="E404" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS779_90.fasta</t>
-        </is>
-      </c>
-      <c r="B405" t="n">
-        <v>0.007333745471584717</v>
-      </c>
-      <c r="C405" t="n">
-        <v>0.9926662545284153</v>
-      </c>
-      <c r="D405" t="n">
-        <v>0.9926662545284153</v>
-      </c>
-      <c r="E405" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS806_11.fasta</t>
-        </is>
-      </c>
-      <c r="B406" t="n">
-        <v>0.01202284593283931</v>
-      </c>
-      <c r="C406" t="n">
-        <v>0.9879771540671607</v>
-      </c>
-      <c r="D406" t="n">
-        <v>0.9879771540671607</v>
-      </c>
-      <c r="E406" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS806_21.fasta</t>
-        </is>
-      </c>
-      <c r="B407" t="n">
-        <v>0.01312087113856875</v>
-      </c>
-      <c r="C407" t="n">
-        <v>0.9868791288614313</v>
-      </c>
-      <c r="D407" t="n">
-        <v>0.9868791288614313</v>
-      </c>
-      <c r="E407" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS833_104.fasta</t>
-        </is>
-      </c>
-      <c r="B408" t="n">
-        <v>0.009025552859688202</v>
-      </c>
-      <c r="C408" t="n">
-        <v>0.9909744471403118</v>
-      </c>
-      <c r="D408" t="n">
-        <v>0.9909744471403118</v>
-      </c>
-      <c r="E408" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS852_20.fasta</t>
-        </is>
-      </c>
-      <c r="B409" t="n">
-        <v>0.02103983144559374</v>
-      </c>
-      <c r="C409" t="n">
-        <v>0.9789601685544063</v>
-      </c>
-      <c r="D409" t="n">
-        <v>0.9789601685544063</v>
-      </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS876_10.fasta</t>
-        </is>
-      </c>
-      <c r="B410" t="n">
-        <v>0.01134465266516416</v>
-      </c>
-      <c r="C410" t="n">
-        <v>0.9886553473348358</v>
-      </c>
-      <c r="D410" t="n">
-        <v>0.9886553473348358</v>
-      </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS877_17.fasta</t>
-        </is>
-      </c>
-      <c r="B411" t="n">
-        <v>0.009589676892548971</v>
-      </c>
-      <c r="C411" t="n">
-        <v>0.990410323107451</v>
-      </c>
-      <c r="D411" t="n">
-        <v>0.990410323107451</v>
-      </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS943_8.fasta</t>
-        </is>
-      </c>
-      <c r="B412" t="n">
-        <v>0.02971323702356932</v>
-      </c>
-      <c r="C412" t="n">
-        <v>0.9702867629764307</v>
-      </c>
-      <c r="D412" t="n">
-        <v>0.9702867629764307</v>
-      </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS962_120.fasta</t>
-        </is>
-      </c>
-      <c r="B413" t="n">
-        <v>0.01771371241269759</v>
-      </c>
-      <c r="C413" t="n">
-        <v>0.9822862875873024</v>
-      </c>
-      <c r="D413" t="n">
-        <v>0.9822862875873024</v>
-      </c>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS988_69.fasta</t>
-        </is>
-      </c>
-      <c r="B414" t="n">
-        <v>0.02729549218701433</v>
-      </c>
-      <c r="C414" t="n">
-        <v>0.9727045078129857</v>
-      </c>
-      <c r="D414" t="n">
-        <v>0.9727045078129857</v>
-      </c>
-      <c r="E414" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS994_32.fasta</t>
-        </is>
-      </c>
-      <c r="B415" t="n">
-        <v>0.02003469574069427</v>
-      </c>
-      <c r="C415" t="n">
-        <v>0.9799653042593057</v>
-      </c>
-      <c r="D415" t="n">
-        <v>0.9799653042593057</v>
-      </c>
-      <c r="E415" t="inlineStr">
         <is>
           <t>c__Coriobacteriia</t>
         </is>
